--- a/X-Helg 2017 Statistikk.xlsx
+++ b/X-Helg 2017 Statistikk.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Ark1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="statistikk" localSheetId="0">'Ark1'!$A$3:$G$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ark1'!$A$1:$G$8</definedName>
+    <definedName name="statistikk" localSheetId="0">'Ark1'!$A$3:$G$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ark1'!$A$1:$G$22</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>Nick</t>
   </si>
@@ -87,7 +87,88 @@
     <t>SisselHultgreen</t>
   </si>
   <si>
-    <t xml:space="preserve">0 besøk logget i Desember! 2 team deltok! </t>
+    <t>johs1988</t>
+  </si>
+  <si>
+    <t>[#3]* [#2]*  (4)</t>
+  </si>
+  <si>
+    <t>[#1] [#2] [#3]  (3)</t>
+  </si>
+  <si>
+    <t>siljejandersen</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>minni09</t>
+  </si>
+  <si>
+    <t>[#2]  (3)</t>
+  </si>
+  <si>
+    <t>[#1] [#3]  (2)</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>TeamLadybug&lt;3&lt;3</t>
+  </si>
+  <si>
+    <t>[#1]  (1)</t>
+  </si>
+  <si>
+    <t>[#2]  (1)</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>O-K Haukland</t>
+  </si>
+  <si>
+    <t>GunnarKolskog</t>
+  </si>
+  <si>
+    <t>[#3]  (3)</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Kransa</t>
+  </si>
+  <si>
+    <t>[#1] [#2]  (2)</t>
+  </si>
+  <si>
+    <t>TeamCOR</t>
+  </si>
+  <si>
+    <t>cara2006</t>
+  </si>
+  <si>
+    <t>silyam</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Onyx Black</t>
+  </si>
+  <si>
+    <t>SonjaJ</t>
+  </si>
+  <si>
+    <t>annesto</t>
+  </si>
+  <si>
+    <t>tomnor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 besøk hittil! 16 team deltok! </t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1089,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -1017,11 +1098,11 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="4.140625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="8" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1031,7 +1112,7 @@
       </c>
       <c r="F1" s="10">
         <f ca="1">NOW()</f>
-        <v>43070.67719722222</v>
+        <v>43073.345530671293</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="39.75" customHeight="1">
@@ -1044,7 +1125,7 @@
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="13" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="G2" s="13"/>
     </row>
@@ -1076,16 +1157,18 @@
         <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="E4" s="7"/>
-      <c r="F4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G4" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1093,20 +1176,264 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6">
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1"/>
-    <row r="12" spans="1:7" ht="15" customHeight="1"/>
+    <row r="11" spans="1:7">
+      <c r="A11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D2:E2"/>

--- a/X-Helg 2017 Statistikk.xlsx
+++ b/X-Helg 2017 Statistikk.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\xhelg-stats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\xhelg-stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,8 +15,8 @@
     <sheet name="Ark1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="statistikk" localSheetId="0">'Ark1'!$A$3:$G$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ark1'!$A$1:$G$22</definedName>
+    <definedName name="statistikk" localSheetId="0">'Ark1'!$A$3:$G$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ark1'!$A$1:$G$25</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
   <si>
     <t>Nick</t>
   </si>
@@ -93,9 +93,6 @@
     <t>[#3]* [#2]*  (4)</t>
   </si>
   <si>
-    <t>[#1] [#2] [#3]  (3)</t>
-  </si>
-  <si>
     <t>siljejandersen</t>
   </si>
   <si>
@@ -168,7 +165,46 @@
     <t>tomnor</t>
   </si>
   <si>
-    <t xml:space="preserve">25 besøk hittil! 16 team deltok! </t>
+    <t>[#1] [#2] [#3]  (6)</t>
+  </si>
+  <si>
+    <t>[#1]  (2)</t>
+  </si>
+  <si>
+    <t>[#2] [#3]  (2)</t>
+  </si>
+  <si>
+    <t>[#2]*  (2)</t>
+  </si>
+  <si>
+    <t>[#2]  (2)</t>
+  </si>
+  <si>
+    <t>[#1] [#2]  (4)</t>
+  </si>
+  <si>
+    <t>Team Lynis</t>
+  </si>
+  <si>
+    <t>[#4]  (3)</t>
+  </si>
+  <si>
+    <t>TeamPolhøgda</t>
+  </si>
+  <si>
+    <t>[#5]  (3)</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>dogteam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 besøk hittil! 19 team deltok! </t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1125,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -1112,7 +1148,7 @@
       </c>
       <c r="F1" s="10">
         <f ca="1">NOW()</f>
-        <v>43073.345530671293</v>
+        <v>43074.534704282407</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="39.75" customHeight="1">
@@ -1125,7 +1161,7 @@
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="13" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G2" s="13"/>
     </row>
@@ -1157,280 +1193,339 @@
         <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="E4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="6"/>
       <c r="G4" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="6" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="F5" s="6" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G5" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="G6" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
-        <v>5</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6"/>
       <c r="E7" s="7"/>
       <c r="F7" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G7" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>5</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="E8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="6"/>
       <c r="G8" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G9" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="G10" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>30</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="6"/>
+      <c r="E11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="G11" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="F12" s="6"/>
       <c r="G12" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="F13" s="6"/>
       <c r="G13" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="F14" s="6"/>
       <c r="G14" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="F15" s="6"/>
       <c r="G15" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="6" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
       <c r="F16" s="6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G16" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="E17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="6"/>
       <c r="G17" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="E18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="6"/>
       <c r="G18" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
       <c r="F19" s="6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G19" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="6">
         <v>1</v>
       </c>
     </row>

--- a/X-Helg 2017 Statistikk.xlsx
+++ b/X-Helg 2017 Statistikk.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\xhelg-stats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\xhelg-stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,8 +15,8 @@
     <sheet name="Ark1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="statistikk" localSheetId="0">'Ark1'!$A$3:$G$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ark1'!$A$1:$G$25</definedName>
+    <definedName name="statistikk" localSheetId="0">'Ark1'!$A$3:$G$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ark1'!$A$1:$G$26</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
   <si>
     <t>Nick</t>
   </si>
@@ -171,9 +171,6 @@
     <t>[#1]  (2)</t>
   </si>
   <si>
-    <t>[#2] [#3]  (2)</t>
-  </si>
-  <si>
     <t>[#2]*  (2)</t>
   </si>
   <si>
@@ -204,7 +201,22 @@
     <t>dogteam</t>
   </si>
   <si>
-    <t xml:space="preserve">26 besøk hittil! 19 team deltok! </t>
+    <t>[#5] [#4]  (2)</t>
+  </si>
+  <si>
+    <t>[#2] [#3] [#5] [#4]  (4)</t>
+  </si>
+  <si>
+    <t>Team Takoma</t>
+  </si>
+  <si>
+    <t>[#5]  (2)</t>
+  </si>
+  <si>
+    <t>[#4]  (1)</t>
+  </si>
+  <si>
+    <t>32 besøk fra 20 team</t>
   </si>
 </sst>
 </file>
@@ -1125,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1138,7 +1150,7 @@
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="8" customWidth="1"/>
     <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="8" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1148,7 +1160,7 @@
       </c>
       <c r="F1" s="10">
         <f ca="1">NOW()</f>
-        <v>43074.534704282407</v>
+        <v>43075.542066782407</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="39.75" customHeight="1">
@@ -1161,7 +1173,7 @@
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G2" s="13"/>
     </row>
@@ -1202,9 +1214,11 @@
       <c r="E4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="G4" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1222,10 +1236,10 @@
         <v>42</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G5" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1237,10 +1251,10 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>21</v>
@@ -1278,7 +1292,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6">
@@ -1328,15 +1342,15 @@
         <v>36</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="G11" s="6">
         <v>3</v>
@@ -1347,14 +1361,16 @@
         <v>36</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>10</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="6"/>
+      <c r="E12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="6">
         <v>3</v>
       </c>
@@ -1364,10 +1380,10 @@
         <v>36</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
@@ -1381,10 +1397,10 @@
         <v>36</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
@@ -1398,10 +1414,10 @@
         <v>36</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
@@ -1412,49 +1428,49 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="6" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="F16" s="6"/>
       <c r="G16" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="6"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="G17" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6">
@@ -1463,61 +1479,61 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="E19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="6"/>
       <c r="G19" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="6"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="G20" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="E21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="6"/>
       <c r="G21" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -1526,6 +1542,23 @@
         <v>25</v>
       </c>
       <c r="G22" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="6">
         <v>1</v>
       </c>
     </row>

--- a/X-Helg 2017 Statistikk.xlsx
+++ b/X-Helg 2017 Statistikk.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Ark1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="statistikk" localSheetId="0">'Ark1'!$A$3:$G$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ark1'!$A$1:$G$26</definedName>
+    <definedName name="statistikk" localSheetId="0">'Ark1'!$A$3:$G$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ark1'!$A$1:$G$28</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
   <si>
     <t>Nick</t>
   </si>
@@ -105,9 +105,6 @@
     <t>[#2]  (3)</t>
   </si>
   <si>
-    <t>[#1] [#3]  (2)</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -171,15 +168,9 @@
     <t>[#1]  (2)</t>
   </si>
   <si>
-    <t>[#2]*  (2)</t>
-  </si>
-  <si>
     <t>[#2]  (2)</t>
   </si>
   <si>
-    <t>[#1] [#2]  (4)</t>
-  </si>
-  <si>
     <t>Team Lynis</t>
   </si>
   <si>
@@ -201,12 +192,6 @@
     <t>dogteam</t>
   </si>
   <si>
-    <t>[#5] [#4]  (2)</t>
-  </si>
-  <si>
-    <t>[#2] [#3] [#5] [#4]  (4)</t>
-  </si>
-  <si>
     <t>Team Takoma</t>
   </si>
   <si>
@@ -216,7 +201,61 @@
     <t>[#4]  (1)</t>
   </si>
   <si>
-    <t>32 besøk fra 20 team</t>
+    <t>[#2]* [#5] [#4]  (8)</t>
+  </si>
+  <si>
+    <t>[#2] [#5] [#8]  (6)</t>
+  </si>
+  <si>
+    <t>[#1] [#3] [#4] [#6]  (4)</t>
+  </si>
+  <si>
+    <t>[#5] [#4] [#6]  (3)</t>
+  </si>
+  <si>
+    <t>[#2] [#3] [#5] [#4] [#6]  (5)</t>
+  </si>
+  <si>
+    <t>[#1] [#2] [#6]  (6)</t>
+  </si>
+  <si>
+    <t>[#3]  (1)</t>
+  </si>
+  <si>
+    <t>[#6]  (3)</t>
+  </si>
+  <si>
+    <t>[#1] [#2] [#6] [#3]  (4)</t>
+  </si>
+  <si>
+    <t>[#1] [#3] [#6]  (3)</t>
+  </si>
+  <si>
+    <t>[#8]  (2)</t>
+  </si>
+  <si>
+    <t>[#2] [#6] [#3]  (3)</t>
+  </si>
+  <si>
+    <t>anila65</t>
+  </si>
+  <si>
+    <t>[#6] [#1] [#2] [#3]  (4)</t>
+  </si>
+  <si>
+    <t>TeamAlmli</t>
+  </si>
+  <si>
+    <t>[#8]  (3)</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>50 besøk fra 22 team!</t>
   </si>
 </sst>
 </file>
@@ -1137,10 +1176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="F2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1148,9 +1187,9 @@
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="8" customWidth="1"/>
     <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="8" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1160,7 +1199,7 @@
       </c>
       <c r="F1" s="10">
         <f ca="1">NOW()</f>
-        <v>43075.542066782407</v>
+        <v>43077.638129976855</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="39.75" customHeight="1">
@@ -1173,7 +1212,7 @@
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="13" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="G2" s="13"/>
     </row>
@@ -1205,20 +1244,20 @@
         <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G4" s="6">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1226,215 +1265,223 @@
         <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G5" s="6">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="G6" s="6">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>20</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="F7" s="6" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="G7" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G8" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="6" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="G9" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="7"/>
       <c r="F10" s="6" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="G10" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="D11" s="6"/>
       <c r="E11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>57</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="F11" s="6"/>
       <c r="G11" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="G12" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="6" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>10</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="G13" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="6" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="6"/>
+      <c r="F14" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="G14" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="6" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>47</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="6"/>
+      <c r="E15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="G15" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="6" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
@@ -1445,67 +1492,67 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="F17" s="6"/>
       <c r="G17" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="D18" s="6"/>
-      <c r="E18" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="E18" s="7"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="E19" s="7"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="6" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
       <c r="F20" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" s="6">
         <v>2</v>
@@ -1513,15 +1560,15 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6">
@@ -1530,35 +1577,69 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="6" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="E22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="6"/>
       <c r="G22" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="6" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="E23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="6"/>
       <c r="G23" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="6">
         <v>1</v>
       </c>
     </row>

--- a/X-Helg 2017 Statistikk.xlsx
+++ b/X-Helg 2017 Statistikk.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="74">
   <si>
     <t>Nick</t>
   </si>
@@ -256,13 +256,19 @@
   </si>
   <si>
     <t>50 besøk fra 22 team!</t>
+  </si>
+  <si>
+    <t>Nyeste versjon:</t>
+  </si>
+  <si>
+    <t>goo.gl/EN6aLd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,6 +420,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -740,7 +754,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -783,8 +797,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -794,9 +809,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -805,9 +817,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="22" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -817,8 +826,19 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20 % - uthevingsfarge 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20 % - uthevingsfarge 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20 % - uthevingsfarge 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -841,6 +861,7 @@
     <cellStyle name="Dårlig" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Forklarende tekst" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="God" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Hyperkobling" xfId="42" builtinId="8"/>
     <cellStyle name="Inndata" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Koblet celle" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Kontrollcelle" xfId="13" builtinId="23" customBuiltin="1"/>
@@ -1176,45 +1197,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="7" customWidth="1"/>
     <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="7" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="E1" s="5" t="s">
+      <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="10">
+      <c r="B1" s="14"/>
+      <c r="C1" s="13">
         <f ca="1">NOW()</f>
-        <v>43077.638129976855</v>
+        <v>43077.64360127315</v>
+      </c>
+      <c r="D1" s="13"/>
+      <c r="E1" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="39.75" customHeight="1">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="15.75">
       <c r="A3" s="2" t="s">
@@ -1226,13 +1258,13 @@
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -1240,416 +1272,420 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="6" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="6" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="6" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="6" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="6" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6">
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6">
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6">
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6">
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="6" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="7" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6">
+      <c r="F21" s="5"/>
+      <c r="G21" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="7" t="s">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6">
+      <c r="F22" s="5"/>
+      <c r="G22" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="7" t="s">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6">
+      <c r="F23" s="5"/>
+      <c r="G23" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="6" t="s">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="6" t="s">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C1:D1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="70" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="85" orientation="portrait" horizontalDpi="4294967293" r:id="rId2"/>
 </worksheet>
 </file>
--- a/X-Helg 2017 Statistikk.xlsx
+++ b/X-Helg 2017 Statistikk.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Ark1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="statistikk" localSheetId="0">'Ark1'!$A$3:$G$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ark1'!$A$1:$G$28</definedName>
+    <definedName name="statistikk" localSheetId="0">'Ark1'!$A$3:$G$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ark1'!$A$1:$G$29</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
   <si>
     <t>Nick</t>
   </si>
@@ -201,9 +201,6 @@
     <t>[#4]  (1)</t>
   </si>
   <si>
-    <t>[#2]* [#5] [#4]  (8)</t>
-  </si>
-  <si>
     <t>[#2] [#5] [#8]  (6)</t>
   </si>
   <si>
@@ -255,13 +252,22 @@
     <t>10</t>
   </si>
   <si>
-    <t>50 besøk fra 22 team!</t>
-  </si>
-  <si>
     <t>Nyeste versjon:</t>
   </si>
   <si>
     <t>goo.gl/EN6aLd</t>
+  </si>
+  <si>
+    <t>[#2]* [#8] [#5] [#4]  (11)</t>
+  </si>
+  <si>
+    <t>Breimorampen</t>
+  </si>
+  <si>
+    <t>[#7]  (3)</t>
+  </si>
+  <si>
+    <t>50 besøk fra 23 team!</t>
   </si>
 </sst>
 </file>
@@ -817,6 +823,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -826,17 +840,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="22" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % - uthevingsfarge 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1200,53 +1206,53 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="F2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="7" customWidth="1"/>
     <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="23.42578125" style="7" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="13">
+      <c r="B1" s="10"/>
+      <c r="C1" s="16">
         <f ca="1">NOW()</f>
-        <v>43077.64360127315</v>
-      </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>73</v>
+        <v>43077.666753356483</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="39.75" customHeight="1">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="11"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="15.75">
       <c r="A3" s="2" t="s">
@@ -1280,16 +1286,16 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="G4" s="5">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1307,7 +1313,7 @@
         <v>40</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5" s="5">
         <v>13</v>
@@ -1328,7 +1334,7 @@
         <v>41</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G6" s="5">
         <v>11</v>
@@ -1344,10 +1350,10 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="G7" s="5">
         <v>7</v>
@@ -1361,7 +1367,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>5</v>
@@ -1383,11 +1389,11 @@
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G9" s="5">
         <v>7</v>
@@ -1406,7 +1412,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="6"/>
       <c r="F10" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G10" s="5">
         <v>6</v>
@@ -1424,7 +1430,7 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5">
@@ -1444,7 +1450,7 @@
         <v>41</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G12" s="5">
         <v>5</v>
@@ -1455,13 +1461,13 @@
         <v>47</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="6"/>
       <c r="F13" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G13" s="5">
         <v>4</v>
@@ -1561,10 +1567,10 @@
         <v>48</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="6"/>
@@ -1575,44 +1581,44 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="5" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="5"/>
+        <v>73</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="D20" s="5"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="F20" s="5"/>
       <c r="G20" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="5"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="G21" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -1626,10 +1632,10 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1643,27 +1649,27 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="E24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="5"/>
       <c r="G24" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -1672,6 +1678,23 @@
         <v>24</v>
       </c>
       <c r="G25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="5">
         <v>1</v>
       </c>
     </row>

--- a/X-Helg 2017 Statistikk.xlsx
+++ b/X-Helg 2017 Statistikk.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\xhelg-stats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\xhelg-stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18180" windowHeight="5925"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18180" windowHeight="5925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="statistikk" localSheetId="0">'Ark1'!$A$3:$G$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ark1'!$A$1:$G$29</definedName>
+    <definedName name="statistikk" localSheetId="0">'Ark1'!$A$3:$G$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ark1'!$A$1:$G$30</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="statistikk" type="6" refreshedVersion="5" background="1" refreshOnLoad="1" saveData="1">
-    <textPr sourceFile="C:\Code\xhelg-stats\X-Helg_2017_statistikk.csv" decimal="," thousands=" " tab="0" comma="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="statistikk" type="6" refreshedVersion="6" background="1" refreshOnLoad="1" saveData="1">
+    <textPr sourceFile="E:\Code\xhelg-stats\X-Helg_2017_statistikk.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="6">
         <textField type="text"/>
         <textField type="text"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="77">
   <si>
     <t>Nick</t>
   </si>
@@ -111,9 +111,6 @@
     <t>TeamLadybug&lt;3&lt;3</t>
   </si>
   <si>
-    <t>[#1]  (1)</t>
-  </si>
-  <si>
     <t>[#2]  (1)</t>
   </si>
   <si>
@@ -195,18 +192,9 @@
     <t>Team Takoma</t>
   </si>
   <si>
-    <t>[#5]  (2)</t>
-  </si>
-  <si>
     <t>[#4]  (1)</t>
   </si>
   <si>
-    <t>[#2] [#5] [#8]  (6)</t>
-  </si>
-  <si>
-    <t>[#1] [#3] [#4] [#6]  (4)</t>
-  </si>
-  <si>
     <t>[#5] [#4] [#6]  (3)</t>
   </si>
   <si>
@@ -222,18 +210,12 @@
     <t>[#6]  (3)</t>
   </si>
   <si>
-    <t>[#1] [#2] [#6] [#3]  (4)</t>
-  </si>
-  <si>
     <t>[#1] [#3] [#6]  (3)</t>
   </si>
   <si>
     <t>[#8]  (2)</t>
   </si>
   <si>
-    <t>[#2] [#6] [#3]  (3)</t>
-  </si>
-  <si>
     <t>anila65</t>
   </si>
   <si>
@@ -258,23 +240,44 @@
     <t>goo.gl/EN6aLd</t>
   </si>
   <si>
-    <t>[#2]* [#8] [#5] [#4]  (11)</t>
-  </si>
-  <si>
     <t>Breimorampen</t>
   </si>
   <si>
     <t>[#7]  (3)</t>
   </si>
   <si>
-    <t>50 besøk fra 23 team!</t>
+    <t>[#2]* [#8] [#5] [#4] [#7]  (14)</t>
+  </si>
+  <si>
+    <t>[#1] [#2] [#5] [#7] [#8]  (10)</t>
+  </si>
+  <si>
+    <t>[#3] [#4] [#6]  (3)</t>
+  </si>
+  <si>
+    <t>[#2] [#6] [#3] [#5] [#4] [#8]  (6)</t>
+  </si>
+  <si>
+    <t>[#5] [#8]  (4)</t>
+  </si>
+  <si>
+    <t>Team Leteglede</t>
+  </si>
+  <si>
+    <t>[#7]  (2)</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>59 besøk fra 23 team!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -845,24 +848,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20 % - uthevingsfarge 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - uthevingsfarge 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - uthevingsfarge 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - uthevingsfarge 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - uthevingsfarge 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - uthevingsfarge 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - uthevingsfarge 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - uthevingsfarge 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - uthevingsfarge 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - uthevingsfarge 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - uthevingsfarge 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - uthevingsfarge 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - uthevingsfarge 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - uthevingsfarge 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - uthevingsfarge 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - uthevingsfarge 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - uthevingsfarge 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - uthevingsfarge 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20 % – uthevingsfarge 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % – uthevingsfarge 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % – uthevingsfarge 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % – uthevingsfarge 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % – uthevingsfarge 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % – uthevingsfarge 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % – uthevingsfarge 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % – uthevingsfarge 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % – uthevingsfarge 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % – uthevingsfarge 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % – uthevingsfarge 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % – uthevingsfarge 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % – uthevingsfarge 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % – uthevingsfarge 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % – uthevingsfarge 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % – uthevingsfarge 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % – uthevingsfarge 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % – uthevingsfarge 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Beregning" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Dårlig" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Forklarende tekst" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -903,7 +906,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="statistikk" refreshOnLoad="1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="statistikk" refreshOnLoad="1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1202,45 +1205,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="16">
         <f ca="1">NOW()</f>
-        <v>43077.666753356483</v>
+        <v>43078.462146180558</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="39.75" customHeight="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
@@ -1250,11 +1253,11 @@
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="15.75">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1277,28 +1280,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G4" s="5">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -1310,16 +1313,16 @@
         <v>16</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G5" s="5">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
@@ -1331,189 +1334,191 @@
         <v>16</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G6" s="5">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="E7" s="6" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="G7" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="E8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="5"/>
       <c r="G8" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="5" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="5">
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="5" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>63</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F12" s="5"/>
       <c r="G12" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="F13" s="5" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G13" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="6"/>
       <c r="F14" s="5" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="G14" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="E15" s="6"/>
       <c r="F15" s="5" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="G15" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>14</v>
@@ -1528,15 +1533,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="6"/>
@@ -1545,15 +1550,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="6"/>
@@ -1562,15 +1567,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="6"/>
@@ -1579,15 +1584,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="6"/>
@@ -1596,105 +1601,122 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="6"/>
       <c r="F21" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="6" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="E25" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="5"/>
       <c r="G25" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="6"/>
       <c r="F26" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G26" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1706,7 +1728,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F1" r:id="rId1"/>
+    <hyperlink ref="F1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait" horizontalDpi="4294967293" r:id="rId2"/>

--- a/X-Helg 2017 Statistikk.xlsx
+++ b/X-Helg 2017 Statistikk.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Ark1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="statistikk" localSheetId="0">'Ark1'!$A$3:$G$27</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ark1'!$A$1:$G$30</definedName>
+    <definedName name="statistikk" localSheetId="0">'Ark1'!$A$3:$G$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ark1'!$A$1:$G$32</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
   <si>
     <t>Nick</t>
   </si>
@@ -90,9 +90,6 @@
     <t>johs1988</t>
   </si>
   <si>
-    <t>[#3]* [#2]*  (4)</t>
-  </si>
-  <si>
     <t>siljejandersen</t>
   </si>
   <si>
@@ -195,12 +192,6 @@
     <t>[#4]  (1)</t>
   </si>
   <si>
-    <t>[#5] [#4] [#6]  (3)</t>
-  </si>
-  <si>
-    <t>[#2] [#3] [#5] [#4] [#6]  (5)</t>
-  </si>
-  <si>
     <t>[#1] [#2] [#6]  (6)</t>
   </si>
   <si>
@@ -219,9 +210,6 @@
     <t>anila65</t>
   </si>
   <si>
-    <t>[#6] [#1] [#2] [#3]  (4)</t>
-  </si>
-  <si>
     <t>TeamAlmli</t>
   </si>
   <si>
@@ -246,18 +234,12 @@
     <t>[#7]  (3)</t>
   </si>
   <si>
-    <t>[#2]* [#8] [#5] [#4] [#7]  (14)</t>
-  </si>
-  <si>
     <t>[#1] [#2] [#5] [#7] [#8]  (10)</t>
   </si>
   <si>
     <t>[#3] [#4] [#6]  (3)</t>
   </si>
   <si>
-    <t>[#2] [#6] [#3] [#5] [#4] [#8]  (6)</t>
-  </si>
-  <si>
     <t>[#5] [#8]  (4)</t>
   </si>
   <si>
@@ -270,7 +252,49 @@
     <t>11</t>
   </si>
   <si>
-    <t>59 besøk fra 23 team!</t>
+    <t>[#2]* [#4] [#5] [#7] [#8]  (14)</t>
+  </si>
+  <si>
+    <t>[#2]* [#3]*  (4)</t>
+  </si>
+  <si>
+    <t>[#4] [#5] [#6]  (3)</t>
+  </si>
+  <si>
+    <t>[#6]*  (2)</t>
+  </si>
+  <si>
+    <t>[#1] [#6]  (4)</t>
+  </si>
+  <si>
+    <t>[#2] [#3] [#4] [#5] [#8]  (5)</t>
+  </si>
+  <si>
+    <t>[#2] [#3] [#4] [#5] [#6]  (5)</t>
+  </si>
+  <si>
+    <t>[#2] [#3] [#4] [#5] [#6] [#8]  (6)</t>
+  </si>
+  <si>
+    <t>[#1] [#2] [#6] [#3]  (4)</t>
+  </si>
+  <si>
+    <t>Brustadteam</t>
+  </si>
+  <si>
+    <t>[#9]  (3)</t>
+  </si>
+  <si>
+    <t>Linolse</t>
+  </si>
+  <si>
+    <t>[#10]  (3)</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>59 besøk fra 26 team!</t>
   </si>
 </sst>
 </file>
@@ -1209,10 +1233,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1233,14 +1257,14 @@
       <c r="B1" s="10"/>
       <c r="C1" s="16">
         <f ca="1">NOW()</f>
-        <v>43078.462146180558</v>
+        <v>43079.502678819445</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1253,7 +1277,7 @@
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="15" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G2" s="15"/>
     </row>
@@ -1285,17 +1309,17 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G4" s="5">
         <v>27</v>
@@ -1303,20 +1327,20 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="G5" s="5">
         <v>13</v>
@@ -1324,20 +1348,20 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="G6" s="5">
         <v>11</v>
@@ -1345,20 +1369,20 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G7" s="5">
         <v>11</v>
@@ -1366,58 +1390,60 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>55</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="G8" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>71</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F9" s="5"/>
       <c r="G9" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G10" s="5">
         <v>7</v>
@@ -1425,18 +1451,18 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
       <c r="F11" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G11" s="5">
         <v>6</v>
@@ -1447,14 +1473,14 @@
         <v>46</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5">
@@ -1466,15 +1492,15 @@
         <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="5">
         <v>5</v>
@@ -1482,16 +1508,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="6"/>
       <c r="F14" s="5" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="G14" s="5">
         <v>4</v>
@@ -1499,7 +1525,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>3</v>
@@ -1510,7 +1536,7 @@
       <c r="D15" s="5"/>
       <c r="E15" s="6"/>
       <c r="F15" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G15" s="5">
         <v>4</v>
@@ -1518,7 +1544,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>14</v>
@@ -1535,13 +1561,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="6"/>
@@ -1552,13 +1578,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="6"/>
@@ -1569,13 +1595,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="6"/>
@@ -1586,13 +1612,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="C20" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="6"/>
@@ -1603,66 +1629,66 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="5"/>
+        <v>79</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="D21" s="5"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="F21" s="5"/>
       <c r="G21" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="5"/>
+        <v>81</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="D22" s="5"/>
-      <c r="E22" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="E22" s="6"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="5"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="G23" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="6" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5">
@@ -1671,15 +1697,15 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5">
@@ -1688,35 +1714,69 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="E26" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="5"/>
       <c r="G26" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="E27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="5"/>
       <c r="G27" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="5">
         <v>1</v>
       </c>
     </row>

--- a/X-Helg 2017 Statistikk.xlsx
+++ b/X-Helg 2017 Statistikk.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="81">
   <si>
     <t>Nick</t>
   </si>
@@ -156,9 +156,6 @@
     <t>tomnor</t>
   </si>
   <si>
-    <t>[#1] [#2] [#3]  (6)</t>
-  </si>
-  <si>
     <t>[#1]  (2)</t>
   </si>
   <si>
@@ -201,9 +198,6 @@
     <t>[#6]  (3)</t>
   </si>
   <si>
-    <t>[#1] [#3] [#6]  (3)</t>
-  </si>
-  <si>
     <t>[#8]  (2)</t>
   </si>
   <si>
@@ -234,12 +228,6 @@
     <t>[#7]  (3)</t>
   </si>
   <si>
-    <t>[#1] [#2] [#5] [#7] [#8]  (10)</t>
-  </si>
-  <si>
-    <t>[#3] [#4] [#6]  (3)</t>
-  </si>
-  <si>
     <t>[#5] [#8]  (4)</t>
   </si>
   <si>
@@ -249,36 +237,15 @@
     <t>[#7]  (2)</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>[#2]* [#4] [#5] [#7] [#8]  (14)</t>
   </si>
   <si>
     <t>[#2]* [#3]*  (4)</t>
   </si>
   <si>
-    <t>[#4] [#5] [#6]  (3)</t>
-  </si>
-  <si>
     <t>[#6]*  (2)</t>
   </si>
   <si>
-    <t>[#1] [#6]  (4)</t>
-  </si>
-  <si>
-    <t>[#2] [#3] [#4] [#5] [#8]  (5)</t>
-  </si>
-  <si>
-    <t>[#2] [#3] [#4] [#5] [#6]  (5)</t>
-  </si>
-  <si>
-    <t>[#2] [#3] [#4] [#5] [#6] [#8]  (6)</t>
-  </si>
-  <si>
-    <t>[#1] [#2] [#6] [#3]  (4)</t>
-  </si>
-  <si>
     <t>Brustadteam</t>
   </si>
   <si>
@@ -291,10 +258,31 @@
     <t>[#10]  (3)</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>59 besøk fra 26 team!</t>
+  </si>
+  <si>
+    <t>[#1] [#2] [#3] [#5] [#6] [#7] [#8]  (14)</t>
+  </si>
+  <si>
+    <t>[#1] [#2] [#3] [#5] [#6]  (10)</t>
+  </si>
+  <si>
+    <t>[#1] [#2] [#6] [#8]  (8)</t>
+  </si>
+  <si>
+    <t>[#3] [#4] [#5]  (3)</t>
+  </si>
+  <si>
+    <t>[#3] [#6]  (4)</t>
+  </si>
+  <si>
+    <t>[#1]  (1)</t>
+  </si>
+  <si>
+    <t>[#6]  (2)</t>
+  </si>
+  <si>
+    <t>[#1] [#2] [#3]  (3)</t>
   </si>
 </sst>
 </file>
@@ -1246,7 +1234,7 @@
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="25.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1257,14 +1245,14 @@
       <c r="B1" s="10"/>
       <c r="C1" s="16">
         <f ca="1">NOW()</f>
-        <v>43079.502678819445</v>
+        <v>43079.527055902778</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1277,7 +1265,7 @@
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="15" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="G2" s="15"/>
     </row>
@@ -1313,117 +1301,117 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="G4" s="5">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="G5" s="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>74</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="G6" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>76</v>
       </c>
       <c r="G7" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G8" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5">
@@ -1432,55 +1420,57 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="G10" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>19</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F11" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G11" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5">
@@ -1489,18 +1479,18 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" s="5">
         <v>5</v>
@@ -1508,24 +1498,26 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="F14" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>3</v>
@@ -1544,7 +1536,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>14</v>
@@ -1561,7 +1553,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>25</v>
@@ -1578,13 +1570,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="6"/>
@@ -1595,13 +1587,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="6"/>
@@ -1612,13 +1604,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="6"/>
@@ -1629,13 +1621,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="6"/>
@@ -1646,13 +1638,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="6"/>
@@ -1663,7 +1655,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>28</v>
@@ -1680,7 +1672,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>34</v>
@@ -1688,7 +1680,7 @@
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5">
@@ -1697,7 +1689,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>35</v>
@@ -1705,7 +1697,7 @@
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5">
@@ -1714,15 +1706,15 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5">
@@ -1731,7 +1723,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>37</v>
@@ -1739,7 +1731,7 @@
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5">
@@ -1748,7 +1740,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>36</v>
@@ -1765,10 +1757,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -1791,6 +1783,6 @@
     <hyperlink ref="F1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="85" orientation="portrait" horizontalDpi="4294967293" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="4294967293" r:id="rId2"/>
 </worksheet>
 </file>
--- a/X-Helg 2017 Statistikk.xlsx
+++ b/X-Helg 2017 Statistikk.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Ark1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="statistikk" localSheetId="0">'Ark1'!$A$3:$G$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ark1'!$A$1:$G$32</definedName>
+    <definedName name="statistikk" localSheetId="0">'Ark1'!$A$3:$G$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ark1'!$A$1:$G$38</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="97">
   <si>
     <t>Nick</t>
   </si>
@@ -258,9 +258,6 @@
     <t>[#10]  (3)</t>
   </si>
   <si>
-    <t>59 besøk fra 26 team!</t>
-  </si>
-  <si>
     <t>[#1] [#2] [#3] [#5] [#6] [#7] [#8]  (14)</t>
   </si>
   <si>
@@ -270,19 +267,70 @@
     <t>[#1] [#2] [#6] [#8]  (8)</t>
   </si>
   <si>
-    <t>[#3] [#4] [#5]  (3)</t>
-  </si>
-  <si>
     <t>[#3] [#6]  (4)</t>
   </si>
   <si>
-    <t>[#1]  (1)</t>
-  </si>
-  <si>
     <t>[#6]  (2)</t>
   </si>
   <si>
-    <t>[#1] [#2] [#3]  (3)</t>
+    <t>[#4] [#10]  (2)</t>
+  </si>
+  <si>
+    <t>[#3] [#4] [#5] [#10]  (4)</t>
+  </si>
+  <si>
+    <t>[#1] [#10]  (2)</t>
+  </si>
+  <si>
+    <t>[#1] [#2] [#3] [#10]  (4)</t>
+  </si>
+  <si>
+    <t>[#12]  (3)</t>
+  </si>
+  <si>
+    <t>Team_Alpha300</t>
+  </si>
+  <si>
+    <t>[#11]  (3)</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Askeladdene</t>
+  </si>
+  <si>
+    <t>[#11]  (2)</t>
+  </si>
+  <si>
+    <t>[#2] [#1]  (2)</t>
+  </si>
+  <si>
+    <t>wivian59</t>
+  </si>
+  <si>
+    <t>[#6] [#10]  (2)</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Team Skartun</t>
+  </si>
+  <si>
+    <t>[#9]  (1)</t>
+  </si>
+  <si>
+    <t>hjelpetrollan</t>
+  </si>
+  <si>
+    <t>smøløen</t>
+  </si>
+  <si>
+    <t>[#11]  (1)</t>
+  </si>
+  <si>
+    <t>72 besøk fra 32 team!</t>
   </si>
 </sst>
 </file>
@@ -1221,10 +1269,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,7 +1282,7 @@
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="25.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1245,7 +1293,7 @@
       <c r="B1" s="10"/>
       <c r="C1" s="16">
         <f ca="1">NOW()</f>
-        <v>43079.527055902778</v>
+        <v>43081.785657175926</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="11" t="s">
@@ -1265,7 +1313,7 @@
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="15" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="G2" s="15"/>
     </row>
@@ -1304,7 +1352,7 @@
         <v>65</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>48</v>
@@ -1325,13 +1373,13 @@
         <v>66</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="G5" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1346,13 +1394,13 @@
         <v>66</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="G6" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1367,13 +1415,13 @@
         <v>67</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G7" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1388,13 +1436,13 @@
         <v>67</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G8" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1402,46 +1450,46 @@
         <v>23</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D9" s="5"/>
       <c r="E9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="5"/>
+        <v>75</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="G9" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E10" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>78</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F10" s="5"/>
       <c r="G10" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>30</v>
@@ -1460,106 +1508,108 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>41</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="5"/>
+        <v>76</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="G12" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F13" s="5"/>
       <c r="G13" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>80</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F14" s="5"/>
       <c r="G14" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="5">
         <v>5</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="5">
-        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="G16" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="6"/>
@@ -1570,13 +1620,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="6"/>
@@ -1587,13 +1637,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="6"/>
@@ -1604,13 +1654,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="6"/>
@@ -1621,13 +1671,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="6"/>
@@ -1638,13 +1688,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="6"/>
@@ -1655,49 +1705,49 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="5"/>
+        <v>70</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="D23" s="5"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="F23" s="5"/>
       <c r="G23" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="D24" s="5"/>
-      <c r="E24" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="E24" s="6"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="6" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5">
@@ -1706,27 +1756,27 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" s="5"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="G26" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -1740,24 +1790,24 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="E28" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="5"/>
       <c r="G28" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>46</v>
@@ -1766,9 +1816,111 @@
       <c r="D29" s="5"/>
       <c r="E29" s="6"/>
       <c r="F29" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G31" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G33" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G35" s="5">
         <v>1</v>
       </c>
     </row>

--- a/X-Helg 2017 Statistikk.xlsx
+++ b/X-Helg 2017 Statistikk.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="95">
   <si>
     <t>Nick</t>
   </si>
@@ -261,30 +261,12 @@
     <t>[#1] [#2] [#3] [#5] [#6] [#7] [#8]  (14)</t>
   </si>
   <si>
-    <t>[#1] [#2] [#3] [#5] [#6]  (10)</t>
-  </si>
-  <si>
-    <t>[#1] [#2] [#6] [#8]  (8)</t>
-  </si>
-  <si>
     <t>[#3] [#6]  (4)</t>
   </si>
   <si>
-    <t>[#6]  (2)</t>
-  </si>
-  <si>
-    <t>[#4] [#10]  (2)</t>
-  </si>
-  <si>
-    <t>[#3] [#4] [#5] [#10]  (4)</t>
-  </si>
-  <si>
     <t>[#1] [#10]  (2)</t>
   </si>
   <si>
-    <t>[#1] [#2] [#3] [#10]  (4)</t>
-  </si>
-  <si>
     <t>[#12]  (3)</t>
   </si>
   <si>
@@ -312,9 +294,6 @@
     <t>[#6] [#10]  (2)</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>Team Skartun</t>
   </si>
   <si>
@@ -331,6 +310,21 @@
   </si>
   <si>
     <t>72 besøk fra 32 team!</t>
+  </si>
+  <si>
+    <t>[#1] [#2] [#3] [#5] [#6] [#10]  (12)</t>
+  </si>
+  <si>
+    <t>[#1] [#2] [#6] [#8] [#10]  (10)</t>
+  </si>
+  <si>
+    <t>[#3] [#4] [#5]  (3)</t>
+  </si>
+  <si>
+    <t>[#6] [#10]  (4)</t>
+  </si>
+  <si>
+    <t>[#1] [#2] [#3]  (3)</t>
   </si>
 </sst>
 </file>
@@ -1282,7 +1276,7 @@
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="25.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1293,7 +1287,7 @@
       <c r="B1" s="10"/>
       <c r="C1" s="16">
         <f ca="1">NOW()</f>
-        <v>43081.785657175926</v>
+        <v>43081.795854282405</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="11" t="s">
@@ -1313,7 +1307,7 @@
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="15" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G2" s="15"/>
     </row>
@@ -1373,13 +1367,13 @@
         <v>66</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="G5" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1394,13 +1388,13 @@
         <v>66</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="G6" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1415,13 +1409,13 @@
         <v>67</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="G7" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1436,13 +1430,13 @@
         <v>67</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="G8" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1457,10 +1451,10 @@
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G9" s="5">
         <v>9</v>
@@ -1508,7 +1502,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>53</v>
@@ -1516,24 +1510,24 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="6" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="G12" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6" t="s">
@@ -1546,7 +1540,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>40</v>
@@ -1565,7 +1559,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>47</v>
@@ -1584,7 +1578,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>3</v>
@@ -1603,7 +1597,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>14</v>
@@ -1620,7 +1614,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>25</v>
@@ -1637,7 +1631,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>42</v>
@@ -1654,7 +1648,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>54</v>
@@ -1671,7 +1665,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>60</v>
@@ -1688,7 +1682,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>68</v>
@@ -1705,7 +1699,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>70</v>
@@ -1722,13 +1716,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="6"/>
@@ -1739,15 +1733,15 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5">
@@ -1756,7 +1750,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>28</v>
@@ -1773,7 +1767,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>34</v>
@@ -1790,7 +1784,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>63</v>
@@ -1807,7 +1801,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>46</v>
@@ -1816,7 +1810,7 @@
       <c r="D29" s="5"/>
       <c r="E29" s="6"/>
       <c r="F29" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G29" s="5">
         <v>2</v>
@@ -1824,7 +1818,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>37</v>
@@ -1841,16 +1835,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="6"/>
       <c r="F31" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G31" s="5">
         <v>2</v>
@@ -1858,16 +1852,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="6"/>
       <c r="F32" s="5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G32" s="5">
         <v>1</v>
@@ -1875,7 +1869,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>36</v>
@@ -1892,16 +1886,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="6"/>
       <c r="F34" s="5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G34" s="5">
         <v>1</v>
@@ -1909,16 +1903,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="6"/>
       <c r="F35" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G35" s="5">
         <v>1</v>

--- a/X-Helg 2017 Statistikk.xlsx
+++ b/X-Helg 2017 Statistikk.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Ark1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="statistikk" localSheetId="0">'Ark1'!$A$3:$G$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ark1'!$A$1:$G$38</definedName>
+    <definedName name="statistikk" localSheetId="0">'Ark1'!$A$3:$G$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ark1'!$A$1:$G$41</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="109">
   <si>
     <t>Nick</t>
   </si>
@@ -243,9 +243,6 @@
     <t>[#2]* [#3]*  (4)</t>
   </si>
   <si>
-    <t>[#6]*  (2)</t>
-  </si>
-  <si>
     <t>Brustadteam</t>
   </si>
   <si>
@@ -258,12 +255,6 @@
     <t>[#10]  (3)</t>
   </si>
   <si>
-    <t>[#1] [#2] [#3] [#5] [#6] [#7] [#8]  (14)</t>
-  </si>
-  <si>
-    <t>[#3] [#6]  (4)</t>
-  </si>
-  <si>
     <t>[#1] [#10]  (2)</t>
   </si>
   <si>
@@ -309,22 +300,73 @@
     <t>[#11]  (1)</t>
   </si>
   <si>
-    <t>72 besøk fra 32 team!</t>
-  </si>
-  <si>
-    <t>[#1] [#2] [#3] [#5] [#6] [#10]  (12)</t>
-  </si>
-  <si>
-    <t>[#1] [#2] [#6] [#8] [#10]  (10)</t>
-  </si>
-  <si>
     <t>[#3] [#4] [#5]  (3)</t>
   </si>
   <si>
-    <t>[#6] [#10]  (4)</t>
-  </si>
-  <si>
     <t>[#1] [#2] [#3]  (3)</t>
+  </si>
+  <si>
+    <t>[#1] [#2] [#3] [#5] [#6] [#7] [#8] [#13]  (16)</t>
+  </si>
+  <si>
+    <t>[#4] [#12] [#10]  (3)</t>
+  </si>
+  <si>
+    <t>[#12]* [#6]*  (4)</t>
+  </si>
+  <si>
+    <t>[#1] [#2] [#6] [#8] [#10] [#12] [#13]  (14)</t>
+  </si>
+  <si>
+    <t>[#1] [#2] [#3] [#5] [#6] [#10] [#13]  (14)</t>
+  </si>
+  <si>
+    <t>[#4] [#14]  (2)</t>
+  </si>
+  <si>
+    <t>[#1] [#2] [#6] [#8] [#10] [#13]  (12)</t>
+  </si>
+  <si>
+    <t>[#3] [#4] [#5] [#12]  (4)</t>
+  </si>
+  <si>
+    <t>[#6] [#10] [#12] [#13] [#14]  (10)</t>
+  </si>
+  <si>
+    <t>[#3] [#6] [#13]  (6)</t>
+  </si>
+  <si>
+    <t>[#14]  (3)</t>
+  </si>
+  <si>
+    <t>[#2] [#13]  (4)</t>
+  </si>
+  <si>
+    <t>[#13]  (2)</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>IFYELife</t>
+  </si>
+  <si>
+    <t>brennes</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Hegeka&amp;co</t>
+  </si>
+  <si>
+    <t>[#12]  (1)</t>
+  </si>
+  <si>
+    <t>93 besøk fra 35 team!</t>
   </si>
 </sst>
 </file>
@@ -1263,10 +1305,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,7 +1318,7 @@
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="25.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1287,7 +1329,7 @@
       <c r="B1" s="10"/>
       <c r="C1" s="16">
         <f ca="1">NOW()</f>
-        <v>43081.795854282405</v>
+        <v>43083.960950925924</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="11" t="s">
@@ -1307,7 +1349,7 @@
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="15" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="G2" s="15"/>
     </row>
@@ -1334,7 +1376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -1346,55 +1388,55 @@
         <v>65</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="G4" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="G5" s="5">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
         <v>66</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="G6" s="5">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1402,93 +1444,93 @@
         <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G7" s="5">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="G8" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>19</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="6" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G9" s="5">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="5"/>
+        <v>97</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="G10" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6" t="s">
         <v>49</v>
@@ -1497,60 +1539,62 @@
         <v>50</v>
       </c>
       <c r="G11" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E12" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>94</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F12" s="5"/>
       <c r="G12" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="6" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5">
@@ -1559,102 +1603,108 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="D15" s="5"/>
       <c r="E15" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F15" s="5"/>
       <c r="G15" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5">
         <v>5</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="5">
-        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>26</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="5"/>
+      <c r="E18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="G18" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="5"/>
+      <c r="F19" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="G19" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="6"/>
@@ -1665,13 +1715,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="6"/>
@@ -1682,13 +1732,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="6"/>
@@ -1699,13 +1749,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="6"/>
@@ -1716,13 +1766,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="6"/>
@@ -1733,15 +1783,15 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5">
@@ -1750,49 +1800,49 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="E26" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="5"/>
       <c r="G26" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="5"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="G27" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="6" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5">
@@ -1801,32 +1851,32 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="5" t="s">
-        <v>81</v>
-      </c>
+      <c r="E29" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="5"/>
       <c r="G29" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="6" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5">
@@ -1835,16 +1885,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="6"/>
       <c r="F31" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G31" s="5">
         <v>2</v>
@@ -1852,50 +1902,50 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="5" t="s">
-        <v>85</v>
-      </c>
+      <c r="E32" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="5"/>
       <c r="G32" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="6"/>
       <c r="F33" s="5" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="G33" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="6"/>
       <c r="F34" s="5" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="G34" s="5">
         <v>1</v>
@@ -1903,18 +1953,69 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="6"/>
       <c r="F35" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G35" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G37" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" s="5">
         <v>1</v>
       </c>
     </row>

--- a/X-Helg 2017 Statistikk.xlsx
+++ b/X-Helg 2017 Statistikk.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Ark1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="statistikk" localSheetId="0">'Ark1'!$A$3:$G$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ark1'!$A$1:$G$41</definedName>
+    <definedName name="statistikk" localSheetId="0">'Ark1'!$A$3:$G$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ark1'!$A$1:$G$44</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="114">
   <si>
     <t>Nick</t>
   </si>
@@ -129,9 +129,6 @@
     <t>Kransa</t>
   </si>
   <si>
-    <t>[#1] [#2]  (2)</t>
-  </si>
-  <si>
     <t>TeamCOR</t>
   </si>
   <si>
@@ -237,9 +234,6 @@
     <t>[#7]  (2)</t>
   </si>
   <si>
-    <t>[#2]* [#4] [#5] [#7] [#8]  (14)</t>
-  </si>
-  <si>
     <t>[#2]* [#3]*  (4)</t>
   </si>
   <si>
@@ -303,30 +297,15 @@
     <t>[#3] [#4] [#5]  (3)</t>
   </si>
   <si>
-    <t>[#1] [#2] [#3]  (3)</t>
-  </si>
-  <si>
-    <t>[#1] [#2] [#3] [#5] [#6] [#7] [#8] [#13]  (16)</t>
-  </si>
-  <si>
     <t>[#4] [#12] [#10]  (3)</t>
   </si>
   <si>
-    <t>[#12]* [#6]*  (4)</t>
-  </si>
-  <si>
-    <t>[#1] [#2] [#6] [#8] [#10] [#12] [#13]  (14)</t>
-  </si>
-  <si>
     <t>[#1] [#2] [#3] [#5] [#6] [#10] [#13]  (14)</t>
   </si>
   <si>
     <t>[#4] [#14]  (2)</t>
   </si>
   <si>
-    <t>[#1] [#2] [#6] [#8] [#10] [#13]  (12)</t>
-  </si>
-  <si>
     <t>[#3] [#4] [#5] [#12]  (4)</t>
   </si>
   <si>
@@ -366,7 +345,43 @@
     <t>[#12]  (1)</t>
   </si>
   <si>
-    <t>93 besøk fra 35 team!</t>
+    <t>[#2]* [#4] [#5] [#7] [#8] [#14]  (17)</t>
+  </si>
+  <si>
+    <t>[#1] [#2] [#3] [#5] [#6] [#7] [#8] [#13] [#14]  (18)</t>
+  </si>
+  <si>
+    <t>[#6]* [#12]*  (4)</t>
+  </si>
+  <si>
+    <t>[#1] [#2] [#6] [#8] [#10] [#12] [#13] [#14]  (16)</t>
+  </si>
+  <si>
+    <t>[#1] [#2] [#6] [#8] [#10] [#13] [#14]  (14)</t>
+  </si>
+  <si>
+    <t>[#2] [#1] [#3]  (3)</t>
+  </si>
+  <si>
+    <t>MeWr</t>
+  </si>
+  <si>
+    <t>[#10]  (2)</t>
+  </si>
+  <si>
+    <t>[#15]  (3)</t>
+  </si>
+  <si>
+    <t>kikkan</t>
+  </si>
+  <si>
+    <t>auronasa</t>
+  </si>
+  <si>
+    <t>[#14]  (1)</t>
+  </si>
+  <si>
+    <t>101 besøk fra 38 team!</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1320,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -1316,7 +1331,7 @@
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
@@ -1329,14 +1344,14 @@
       <c r="B1" s="10"/>
       <c r="C1" s="16">
         <f ca="1">NOW()</f>
-        <v>43083.960950925924</v>
+        <v>43085.614915740742</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1349,7 +1364,7 @@
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="15" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G2" s="15"/>
     </row>
@@ -1385,16 +1400,16 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G4" s="5">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1402,59 +1417,59 @@
         <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G5" s="5">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G6" s="5">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="G7" s="5">
         <v>20</v>
@@ -1469,16 +1484,16 @@
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="G8" s="5">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1486,15 +1501,15 @@
         <v>27</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="G9" s="5">
         <v>13</v>
@@ -1502,7 +1517,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>18</v>
@@ -1512,10 +1527,10 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G10" s="5">
         <v>11</v>
@@ -1523,20 +1538,20 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="G11" s="5">
         <v>10</v>
@@ -1544,19 +1559,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5">
@@ -1565,17 +1580,17 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5">
@@ -1584,36 +1599,38 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F14" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="G14" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="6" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5">
@@ -1622,17 +1639,17 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="6" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5">
@@ -1641,17 +1658,17 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="6" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5">
@@ -1660,85 +1677,89 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="E18" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="F18" s="5"/>
       <c r="G18" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5">
         <v>5</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="5">
-        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
+      <c r="E20" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>43</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="5"/>
+      <c r="E21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="G21" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="6"/>
@@ -1749,13 +1770,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="6"/>
@@ -1766,13 +1787,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="6"/>
@@ -1783,66 +1804,66 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="D25" s="5"/>
-      <c r="E25" s="6" t="s">
-        <v>77</v>
-      </c>
+      <c r="E25" s="6"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" s="5"/>
+        <v>71</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="D26" s="5"/>
-      <c r="E26" s="6" t="s">
-        <v>100</v>
-      </c>
+      <c r="E26" s="6"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="E27" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="5"/>
       <c r="G27" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="6" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5">
@@ -1851,32 +1872,32 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" s="5"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="G29" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="6" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5">
@@ -1885,101 +1906,101 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="5" t="s">
-        <v>78</v>
-      </c>
+      <c r="E31" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="5"/>
       <c r="G31" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F32" s="5"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="G32" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="5" t="s">
-        <v>80</v>
-      </c>
+      <c r="E33" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="5"/>
       <c r="G33" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="5" t="s">
-        <v>107</v>
-      </c>
+      <c r="E34" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="5"/>
       <c r="G34" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="6"/>
       <c r="F35" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G35" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="6"/>
       <c r="F36" s="5" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="G36" s="5">
         <v>1</v>
@@ -1987,16 +2008,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="6"/>
       <c r="F37" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G37" s="5">
         <v>1</v>
@@ -2004,18 +2025,69 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="6"/>
       <c r="F38" s="5" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="G38" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G39" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G40" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G41" s="5">
         <v>1</v>
       </c>
     </row>

--- a/X-Helg 2017 Statistikk.xlsx
+++ b/X-Helg 2017 Statistikk.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Ark1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="statistikk" localSheetId="0">'Ark1'!$A$3:$G$41</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ark1'!$A$1:$G$44</definedName>
+    <definedName name="statistikk" localSheetId="0">'Ark1'!$A$3:$G$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ark1'!$A$1:$G$46</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="121">
   <si>
     <t>Nick</t>
   </si>
@@ -189,9 +189,6 @@
     <t>[#1] [#2] [#6]  (6)</t>
   </si>
   <si>
-    <t>[#3]  (1)</t>
-  </si>
-  <si>
     <t>[#6]  (3)</t>
   </si>
   <si>
@@ -249,9 +246,6 @@
     <t>[#10]  (3)</t>
   </si>
   <si>
-    <t>[#1] [#10]  (2)</t>
-  </si>
-  <si>
     <t>[#12]  (3)</t>
   </si>
   <si>
@@ -318,9 +312,6 @@
     <t>[#14]  (3)</t>
   </si>
   <si>
-    <t>[#2] [#13]  (4)</t>
-  </si>
-  <si>
     <t>[#13]  (2)</t>
   </si>
   <si>
@@ -345,24 +336,9 @@
     <t>[#12]  (1)</t>
   </si>
   <si>
-    <t>[#2]* [#4] [#5] [#7] [#8] [#14]  (17)</t>
-  </si>
-  <si>
-    <t>[#1] [#2] [#3] [#5] [#6] [#7] [#8] [#13] [#14]  (18)</t>
-  </si>
-  <si>
-    <t>[#6]* [#12]*  (4)</t>
-  </si>
-  <si>
-    <t>[#1] [#2] [#6] [#8] [#10] [#12] [#13] [#14]  (16)</t>
-  </si>
-  <si>
     <t>[#1] [#2] [#6] [#8] [#10] [#13] [#14]  (14)</t>
   </si>
   <si>
-    <t>[#2] [#1] [#3]  (3)</t>
-  </si>
-  <si>
     <t>MeWr</t>
   </si>
   <si>
@@ -381,7 +357,52 @@
     <t>[#14]  (1)</t>
   </si>
   <si>
-    <t>101 besøk fra 38 team!</t>
+    <t>[#2]* [#14] [#4] [#5] [#7] [#8]  (17)</t>
+  </si>
+  <si>
+    <t>[#1] [#2] [#3] [#5] [#6] [#7] [#8] [#13] [#14] [#16]  (20)</t>
+  </si>
+  <si>
+    <t>[#12]* [#6]*  (4)</t>
+  </si>
+  <si>
+    <t>[#1] [#2] [#6] [#8] [#10] [#12] [#13] [#14] [#16]  (18)</t>
+  </si>
+  <si>
+    <t>[#4] [#14] [#16]  (3)</t>
+  </si>
+  <si>
+    <t>[#16]  (3)</t>
+  </si>
+  <si>
+    <t>[#1] [#2] [#3] [#16]  (4)</t>
+  </si>
+  <si>
+    <t>[#3] [#12] [#4] [#5] [#8]  (5)</t>
+  </si>
+  <si>
+    <t>[#1] [#10] [#16]  (3)</t>
+  </si>
+  <si>
+    <t>[#2] [#13] [#16]  (6)</t>
+  </si>
+  <si>
+    <t>Blåwingen</t>
+  </si>
+  <si>
+    <t>Team Hebbe</t>
+  </si>
+  <si>
+    <t>[#17]  (3)</t>
+  </si>
+  <si>
+    <t>[#1] [#2]  (2)</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>111 besøk fra 40 team!</t>
   </si>
 </sst>
 </file>
@@ -1320,10 +1341,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,7 +1354,7 @@
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="30.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1344,14 +1365,14 @@
       <c r="B1" s="10"/>
       <c r="C1" s="16">
         <f ca="1">NOW()</f>
-        <v>43085.614915740742</v>
+        <v>43086.597570717589</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>57</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1364,7 +1385,7 @@
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="15" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G2" s="15"/>
     </row>
@@ -1400,16 +1421,16 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G4" s="5">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1421,16 +1442,16 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G5" s="5">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1442,13 +1463,13 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G6" s="5">
         <v>22</v>
@@ -1463,34 +1484,34 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="G7" s="5">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G8" s="5">
         <v>20</v>
@@ -1498,84 +1519,84 @@
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="E9" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G9" s="5">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="G10" s="5">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="G11" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D12" s="5"/>
       <c r="E12" s="6" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1583,23 +1604,25 @@
         <v>55</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E13" s="6" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>3</v>
@@ -1609,7 +1632,7 @@
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>22</v>
@@ -1620,17 +1643,17 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5">
@@ -1639,7 +1662,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>25</v>
@@ -1649,7 +1672,7 @@
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5">
@@ -1658,17 +1681,17 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5">
@@ -1677,17 +1700,17 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5">
@@ -1696,17 +1719,17 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5">
@@ -1715,7 +1738,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>39</v>
@@ -1725,7 +1748,7 @@
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5">
@@ -1734,7 +1757,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>46</v>
@@ -1742,7 +1765,7 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>47</v>
@@ -1753,7 +1776,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>14</v>
@@ -1770,7 +1793,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>41</v>
@@ -1787,13 +1810,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="6"/>
@@ -1804,13 +1827,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="6"/>
@@ -1821,13 +1844,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="6"/>
@@ -1838,36 +1861,36 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="5"/>
+        <v>115</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="D27" s="5"/>
-      <c r="E27" s="6" t="s">
-        <v>75</v>
-      </c>
+      <c r="E27" s="6"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="5"/>
+        <v>116</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="D28" s="5"/>
-      <c r="E28" s="6" t="s">
-        <v>93</v>
-      </c>
+      <c r="E28" s="6"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1875,14 +1898,14 @@
         <v>95</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="5" t="s">
-        <v>76</v>
-      </c>
+      <c r="E29" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="5"/>
       <c r="G29" s="5">
         <v>2</v>
       </c>
@@ -1892,12 +1915,12 @@
         <v>95</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="6" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5">
@@ -1909,14 +1932,14 @@
         <v>95</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F31" s="5"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="G31" s="5">
         <v>2</v>
       </c>
@@ -1926,14 +1949,14 @@
         <v>95</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="5" t="s">
-        <v>76</v>
-      </c>
+      <c r="E32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="5"/>
       <c r="G32" s="5">
         <v>2</v>
       </c>
@@ -1943,12 +1966,12 @@
         <v>95</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="6" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5">
@@ -1960,14 +1983,14 @@
         <v>95</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F34" s="5"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="G34" s="5">
         <v>2</v>
       </c>
@@ -1977,64 +2000,64 @@
         <v>95</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="5" t="s">
-        <v>78</v>
-      </c>
+      <c r="E35" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" s="5"/>
       <c r="G35" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="5" t="s">
-        <v>100</v>
-      </c>
+      <c r="E36" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="5"/>
       <c r="G36" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="6"/>
       <c r="F37" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G37" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="6"/>
       <c r="F38" s="5" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="G38" s="5">
         <v>1</v>
@@ -2042,16 +2065,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="6"/>
       <c r="F39" s="5" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="G39" s="5">
         <v>1</v>
@@ -2059,16 +2082,16 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="6"/>
       <c r="F40" s="5" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="G40" s="5">
         <v>1</v>
@@ -2076,18 +2099,52 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="6"/>
       <c r="F41" s="5" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="G41" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G42" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G43" s="5">
         <v>1</v>
       </c>
     </row>

--- a/X-Helg 2017 Statistikk.xlsx
+++ b/X-Helg 2017 Statistikk.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\xhelg-stats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\xhelg-stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,8 +15,8 @@
     <sheet name="Ark1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="statistikk" localSheetId="0">'Ark1'!$A$3:$G$43</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ark1'!$A$1:$G$46</definedName>
+    <definedName name="statistikk" localSheetId="0">'Ark1'!$A$3:$G$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ark1'!$A$1:$G$48</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="128">
   <si>
     <t>Nick</t>
   </si>
@@ -153,9 +153,6 @@
     <t>tomnor</t>
   </si>
   <si>
-    <t>[#1]  (2)</t>
-  </si>
-  <si>
     <t>[#2]  (2)</t>
   </si>
   <si>
@@ -183,12 +180,6 @@
     <t>Team Takoma</t>
   </si>
   <si>
-    <t>[#4]  (1)</t>
-  </si>
-  <si>
-    <t>[#1] [#2] [#6]  (6)</t>
-  </si>
-  <si>
     <t>[#6]  (3)</t>
   </si>
   <si>
@@ -297,9 +288,6 @@
     <t>[#1] [#2] [#3] [#5] [#6] [#10] [#13]  (14)</t>
   </si>
   <si>
-    <t>[#4] [#14]  (2)</t>
-  </si>
-  <si>
     <t>[#3] [#4] [#5] [#12]  (4)</t>
   </si>
   <si>
@@ -336,9 +324,6 @@
     <t>[#12]  (1)</t>
   </si>
   <si>
-    <t>[#1] [#2] [#6] [#8] [#10] [#13] [#14]  (14)</t>
-  </si>
-  <si>
     <t>MeWr</t>
   </si>
   <si>
@@ -360,30 +345,18 @@
     <t>[#2]* [#14] [#4] [#5] [#7] [#8]  (17)</t>
   </si>
   <si>
-    <t>[#1] [#2] [#3] [#5] [#6] [#7] [#8] [#13] [#14] [#16]  (20)</t>
-  </si>
-  <si>
     <t>[#12]* [#6]*  (4)</t>
   </si>
   <si>
     <t>[#1] [#2] [#6] [#8] [#10] [#12] [#13] [#14] [#16]  (18)</t>
   </si>
   <si>
-    <t>[#4] [#14] [#16]  (3)</t>
-  </si>
-  <si>
     <t>[#16]  (3)</t>
   </si>
   <si>
-    <t>[#1] [#2] [#3] [#16]  (4)</t>
-  </si>
-  <si>
     <t>[#3] [#12] [#4] [#5] [#8]  (5)</t>
   </si>
   <si>
-    <t>[#1] [#10] [#16]  (3)</t>
-  </si>
-  <si>
     <t>[#2] [#13] [#16]  (6)</t>
   </si>
   <si>
@@ -402,7 +375,55 @@
     <t>15</t>
   </si>
   <si>
-    <t>111 besøk fra 40 team!</t>
+    <t>[#18]  (3)</t>
+  </si>
+  <si>
+    <t>[#1] [#2] [#3] [#5] [#6] [#7] [#8] [#13] [#14] [#16] [#17]  (22)</t>
+  </si>
+  <si>
+    <t>[#1] [#2] [#6] [#8] [#10] [#13] [#14] [#16]  (16)</t>
+  </si>
+  <si>
+    <t>[#4] [#14] [#16] [#18]  (4)</t>
+  </si>
+  <si>
+    <t>[#1] [#2] [#6] [#17] [#18]  (10)</t>
+  </si>
+  <si>
+    <t>[#4] [#14] [#18]  (3)</t>
+  </si>
+  <si>
+    <t>[#1] [#2] [#3] [#16] [#18]  (5)</t>
+  </si>
+  <si>
+    <t>[#1] [#10] [#16] [#12] [#14] [#18]  (6)</t>
+  </si>
+  <si>
+    <t>[#1] [#13]  (4)</t>
+  </si>
+  <si>
+    <t>[#14] [#16]  (2)</t>
+  </si>
+  <si>
+    <t>[#7]  (1)</t>
+  </si>
+  <si>
+    <t>[#4] [#18]  (2)</t>
+  </si>
+  <si>
+    <t>joooliii</t>
+  </si>
+  <si>
+    <t>[#19]  (3)</t>
+  </si>
+  <si>
+    <t>skogmal</t>
+  </si>
+  <si>
+    <t>[#15]  (2)</t>
+  </si>
+  <si>
+    <t>129 besøk fra 42 team!</t>
   </si>
 </sst>
 </file>
@@ -1341,10 +1362,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,7 +1375,7 @@
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="30.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1365,14 +1386,14 @@
       <c r="B1" s="10"/>
       <c r="C1" s="16">
         <f ca="1">NOW()</f>
-        <v>43086.597570717589</v>
+        <v>43088.860264120369</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1385,7 +1406,7 @@
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="15" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G2" s="15"/>
     </row>
@@ -1412,25 +1433,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="D4" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G4" s="5">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1442,13 +1465,13 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G5" s="5">
         <v>25</v>
@@ -1463,16 +1486,16 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G6" s="5">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1484,16 +1507,16 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G7" s="5">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1501,67 +1524,69 @@
         <v>27</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="D8" s="5" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="G8" s="5">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G9" s="5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="E10" s="6" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G10" s="5">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>18</v>
@@ -1571,146 +1596,150 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G11" s="5">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="5"/>
+        <v>46</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E12" s="6" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D13" s="5"/>
       <c r="E13" s="6" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="G14" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" s="5"/>
+        <v>86</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>121</v>
+      </c>
       <c r="G15" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>26</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="5"/>
+        <v>57</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>122</v>
+      </c>
       <c r="G16" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F17" s="5"/>
+        <v>86</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="G17" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5" t="s">
-        <v>67</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="5"/>
       <c r="E18" s="6" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5">
@@ -1719,17 +1748,17 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="5"/>
+        <v>94</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="E19" s="6" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5">
@@ -1738,68 +1767,70 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D20" s="5"/>
-      <c r="E20" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="5"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="G20" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="D21" s="5"/>
       <c r="E21" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>47</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="F21" s="5"/>
       <c r="G21" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="6"/>
@@ -1810,13 +1841,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="6"/>
@@ -1827,13 +1858,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="6"/>
@@ -1844,13 +1875,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="6"/>
@@ -1861,13 +1892,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="6"/>
@@ -1878,13 +1909,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
@@ -1895,32 +1926,32 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="5"/>
+        <v>123</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="D29" s="5"/>
-      <c r="E29" s="6" t="s">
-        <v>73</v>
-      </c>
+      <c r="E29" s="6"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="6" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5">
@@ -1929,49 +1960,49 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="5" t="s">
-        <v>118</v>
-      </c>
+      <c r="E31" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="5"/>
       <c r="G31" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="5"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="G32" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="6" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5">
@@ -1980,49 +2011,49 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="5" t="s">
-        <v>74</v>
-      </c>
+      <c r="E34" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34" s="5"/>
       <c r="G34" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F35" s="5"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="G35" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="6" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5">
@@ -2031,67 +2062,67 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="5" t="s">
-        <v>76</v>
-      </c>
+      <c r="E37" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F37" s="5"/>
       <c r="G37" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="5" t="s">
-        <v>97</v>
-      </c>
+      <c r="E38" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="5"/>
       <c r="G38" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="6"/>
       <c r="F39" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G39" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="6"/>
       <c r="F40" s="5" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="G40" s="5">
         <v>1</v>
@@ -2099,16 +2130,16 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="6"/>
       <c r="F41" s="5" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="G41" s="5">
         <v>1</v>
@@ -2116,16 +2147,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="6"/>
       <c r="F42" s="5" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="G42" s="5">
         <v>1</v>
@@ -2133,18 +2164,52 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="6"/>
       <c r="F43" s="5" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="G43" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G44" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G45" s="5">
         <v>1</v>
       </c>
     </row>

--- a/X-Helg 2017 Statistikk.xlsx
+++ b/X-Helg 2017 Statistikk.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\xhelg-stats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\xhelg-stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,8 +15,8 @@
     <sheet name="Ark1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="statistikk" localSheetId="0">'Ark1'!$A$3:$G$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ark1'!$A$1:$G$48</definedName>
+    <definedName name="statistikk" localSheetId="0">'Ark1'!$A$3:$G$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ark1'!$A$1:$G$49</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="132">
   <si>
     <t>Nick</t>
   </si>
@@ -345,12 +345,6 @@
     <t>[#2]* [#14] [#4] [#5] [#7] [#8]  (17)</t>
   </si>
   <si>
-    <t>[#12]* [#6]*  (4)</t>
-  </si>
-  <si>
-    <t>[#1] [#2] [#6] [#8] [#10] [#12] [#13] [#14] [#16]  (18)</t>
-  </si>
-  <si>
     <t>[#16]  (3)</t>
   </si>
   <si>
@@ -381,9 +375,6 @@
     <t>[#1] [#2] [#3] [#5] [#6] [#7] [#8] [#13] [#14] [#16] [#17]  (22)</t>
   </si>
   <si>
-    <t>[#1] [#2] [#6] [#8] [#10] [#13] [#14] [#16]  (16)</t>
-  </si>
-  <si>
     <t>[#4] [#14] [#16] [#18]  (4)</t>
   </si>
   <si>
@@ -420,10 +411,31 @@
     <t>skogmal</t>
   </si>
   <si>
-    <t>[#15]  (2)</t>
-  </si>
-  <si>
-    <t>129 besøk fra 42 team!</t>
+    <t>[#12]* [#18]* [#6]*  (6)</t>
+  </si>
+  <si>
+    <t>[#1] [#2] [#6] [#8] [#10] [#12] [#13] [#14] [#16] [#18]  (20)</t>
+  </si>
+  <si>
+    <t>[#1] [#2] [#6] [#8] [#10] [#13] [#14] [#16] [#18]  (18)</t>
+  </si>
+  <si>
+    <t>[#20]  (3)</t>
+  </si>
+  <si>
+    <t>[#15] [#19]  (4)</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Team Seljevoll</t>
+  </si>
+  <si>
+    <t>[#20]  (1)</t>
+  </si>
+  <si>
+    <t>133 besøk fra 43 team!</t>
   </si>
 </sst>
 </file>
@@ -1362,10 +1374,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1386,7 +1398,7 @@
       <c r="B1" s="10"/>
       <c r="C1" s="16">
         <f ca="1">NOW()</f>
-        <v>43088.860264120369</v>
+        <v>43089.84983078704</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="11" t="s">
@@ -1406,7 +1418,7 @@
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="15" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G2" s="15"/>
     </row>
@@ -1441,13 +1453,13 @@
         <v>24</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>100</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>80</v>
@@ -1456,7 +1468,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -1465,16 +1477,16 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G5" s="5">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1486,16 +1498,16 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>82</v>
       </c>
       <c r="G6" s="5">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1513,7 +1525,7 @@
         <v>81</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G7" s="5">
         <v>22</v>
@@ -1530,13 +1542,13 @@
         <v>85</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G8" s="5">
         <v>21</v>
@@ -1557,7 +1569,7 @@
         <v>81</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G9" s="5">
         <v>21</v>
@@ -1572,13 +1584,13 @@
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>83</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G10" s="5">
         <v>18</v>
@@ -1599,7 +1611,7 @@
         <v>84</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G11" s="5">
         <v>15</v>
@@ -1619,7 +1631,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5">
@@ -1638,7 +1650,7 @@
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5">
@@ -1660,7 +1672,7 @@
         <v>86</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G14" s="5">
         <v>7</v>
@@ -1681,7 +1693,7 @@
         <v>86</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G15" s="5">
         <v>6</v>
@@ -1700,7 +1712,7 @@
         <v>57</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G16" s="5">
         <v>6</v>
@@ -1732,14 +1744,14 @@
         <v>87</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="6" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5">
@@ -1751,14 +1763,14 @@
         <v>87</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5" t="s">
-        <v>64</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="5"/>
       <c r="E19" s="6" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5">
@@ -1770,16 +1782,16 @@
         <v>87</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="5" t="s">
-        <v>120</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="5"/>
       <c r="G20" s="5">
         <v>5</v>
       </c>
@@ -1789,16 +1801,16 @@
         <v>87</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="D21" s="5"/>
-      <c r="E21" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="5"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="G21" s="5">
         <v>5</v>
       </c>
@@ -1808,14 +1820,14 @@
         <v>87</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="6" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5">
@@ -1824,19 +1836,21 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D23" s="5"/>
-      <c r="E23" s="6"/>
+      <c r="E23" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1844,27 +1858,27 @@
         <v>88</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>50</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>127</v>
+      </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="6"/>
@@ -1875,13 +1889,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="6"/>
@@ -1892,13 +1906,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="6"/>
@@ -1909,13 +1923,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
@@ -1926,13 +1940,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="6"/>
@@ -1946,16 +1960,16 @@
         <v>91</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="5"/>
+        <v>105</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="D30" s="5"/>
-      <c r="E30" s="6" t="s">
-        <v>70</v>
-      </c>
+      <c r="E30" s="6"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1963,63 +1977,63 @@
         <v>91</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="5"/>
+        <v>120</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>121</v>
+      </c>
       <c r="D31" s="5"/>
-      <c r="E31" s="6" t="s">
-        <v>86</v>
-      </c>
+      <c r="E31" s="6"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="5" t="s">
-        <v>109</v>
-      </c>
+      <c r="E32" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" s="5"/>
       <c r="G32" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" s="5"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="5" t="s">
+        <v>107</v>
+      </c>
       <c r="G33" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="6" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5">
@@ -2028,49 +2042,49 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="5" t="s">
-        <v>71</v>
-      </c>
+      <c r="E35" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F35" s="5"/>
       <c r="G35" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F36" s="5"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="G36" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="6" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5">
@@ -2079,7 +2093,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>36</v>
@@ -2096,7 +2110,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>72</v>
@@ -2113,7 +2127,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>92</v>
@@ -2130,16 +2144,16 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="6"/>
       <c r="F41" s="5" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="G41" s="5">
         <v>1</v>
@@ -2147,16 +2161,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="6"/>
       <c r="F42" s="5" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="G42" s="5">
         <v>1</v>
@@ -2164,16 +2178,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="6"/>
       <c r="F43" s="5" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="G43" s="5">
         <v>1</v>
@@ -2181,16 +2195,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="6"/>
       <c r="F44" s="5" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="G44" s="5">
         <v>1</v>
@@ -2198,18 +2212,35 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="6"/>
       <c r="F45" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G45" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G46" s="5">
         <v>1</v>
       </c>
     </row>

--- a/X-Helg 2017 Statistikk.xlsx
+++ b/X-Helg 2017 Statistikk.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\xhelg-stats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\xhelg-stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18180" windowHeight="5925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18180" windowHeight="5925"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="2" r:id="rId1"/>
@@ -18,14 +18,14 @@
     <definedName name="statistikk" localSheetId="0">'Ark1'!$A$3:$G$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Ark1'!$A$1:$G$49</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="statistikk" type="6" refreshedVersion="6" background="1" refreshOnLoad="1" saveData="1">
-    <textPr sourceFile="E:\Code\xhelg-stats\X-Helg_2017_statistikk.csv" decimal="," thousands=" " tab="0" comma="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="statistikk" type="6" refreshedVersion="5" background="1" refreshOnLoad="1" saveData="1">
+    <textPr sourceFile="C:\Code\xhelg-stats\X-Helg_2017_statistikk.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="6">
         <textField type="text"/>
         <textField type="text"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="138">
   <si>
     <t>Nick</t>
   </si>
@@ -213,18 +213,12 @@
     <t>[#7]  (3)</t>
   </si>
   <si>
-    <t>[#5] [#8]  (4)</t>
-  </si>
-  <si>
     <t>Team Leteglede</t>
   </si>
   <si>
     <t>[#7]  (2)</t>
   </si>
   <si>
-    <t>[#2]* [#3]*  (4)</t>
-  </si>
-  <si>
     <t>Brustadteam</t>
   </si>
   <si>
@@ -279,21 +273,9 @@
     <t>[#11]  (1)</t>
   </si>
   <si>
-    <t>[#3] [#4] [#5]  (3)</t>
-  </si>
-  <si>
-    <t>[#4] [#12] [#10]  (3)</t>
-  </si>
-  <si>
     <t>[#1] [#2] [#3] [#5] [#6] [#10] [#13]  (14)</t>
   </si>
   <si>
-    <t>[#3] [#4] [#5] [#12]  (4)</t>
-  </si>
-  <si>
-    <t>[#6] [#10] [#12] [#13] [#14]  (10)</t>
-  </si>
-  <si>
     <t>[#3] [#6] [#13]  (6)</t>
   </si>
   <si>
@@ -342,15 +324,9 @@
     <t>[#14]  (1)</t>
   </si>
   <si>
-    <t>[#2]* [#14] [#4] [#5] [#7] [#8]  (17)</t>
-  </si>
-  <si>
     <t>[#16]  (3)</t>
   </si>
   <si>
-    <t>[#3] [#12] [#4] [#5] [#8]  (5)</t>
-  </si>
-  <si>
     <t>[#2] [#13] [#16]  (6)</t>
   </si>
   <si>
@@ -372,9 +348,6 @@
     <t>[#18]  (3)</t>
   </si>
   <si>
-    <t>[#1] [#2] [#3] [#5] [#6] [#7] [#8] [#13] [#14] [#16] [#17]  (22)</t>
-  </si>
-  <si>
     <t>[#4] [#14] [#16] [#18]  (4)</t>
   </si>
   <si>
@@ -384,24 +357,12 @@
     <t>[#4] [#14] [#18]  (3)</t>
   </si>
   <si>
-    <t>[#1] [#2] [#3] [#16] [#18]  (5)</t>
-  </si>
-  <si>
-    <t>[#1] [#10] [#16] [#12] [#14] [#18]  (6)</t>
-  </si>
-  <si>
     <t>[#1] [#13]  (4)</t>
   </si>
   <si>
-    <t>[#14] [#16]  (2)</t>
-  </si>
-  <si>
     <t>[#7]  (1)</t>
   </si>
   <si>
-    <t>[#4] [#18]  (2)</t>
-  </si>
-  <si>
     <t>joooliii</t>
   </si>
   <si>
@@ -411,15 +372,6 @@
     <t>skogmal</t>
   </si>
   <si>
-    <t>[#12]* [#18]* [#6]*  (6)</t>
-  </si>
-  <si>
-    <t>[#1] [#2] [#6] [#8] [#10] [#12] [#13] [#14] [#16] [#18]  (20)</t>
-  </si>
-  <si>
-    <t>[#1] [#2] [#6] [#8] [#10] [#13] [#14] [#16] [#18]  (18)</t>
-  </si>
-  <si>
     <t>[#20]  (3)</t>
   </si>
   <si>
@@ -435,14 +387,80 @@
     <t>[#20]  (1)</t>
   </si>
   <si>
-    <t>133 besøk fra 43 team!</t>
+    <t>[#2]* [#14] [#8] [#5] [#4] [#7]  (17)</t>
+  </si>
+  <si>
+    <t>[#6]* [#18]* [#12]*  (6)</t>
+  </si>
+  <si>
+    <t>[#1] [#2] [#6] [#8] [#10] [#12] [#13] [#14] [#16] [#18] [#21]  (22)</t>
+  </si>
+  <si>
+    <t>[#3] [#5] [#4]  (3)</t>
+  </si>
+  <si>
+    <t>[#1] [#2] [#6] [#8] [#10] [#13] [#14] [#16] [#18] [#21]  (20)</t>
+  </si>
+  <si>
+    <t>[#3] [#5] [#4] [#12]  (4)</t>
+  </si>
+  <si>
+    <t>[#16] [#22] [#21]  (9)</t>
+  </si>
+  <si>
+    <t>[#6] [#10] [#12] [#13] [#14] [#22]  (12)</t>
+  </si>
+  <si>
+    <t>[#1] [#2] [#3] [#16] [#18] [#21]  (6)</t>
+  </si>
+  <si>
+    <t>[#22]  (3)</t>
+  </si>
+  <si>
+    <t>[#3]* [#2]*  (4)</t>
+  </si>
+  <si>
+    <t>[#21]  (3)</t>
+  </si>
+  <si>
+    <t>[#3] [#12] [#8] [#5] [#4]  (5)</t>
+  </si>
+  <si>
+    <t>[#1] [#10] [#16] [#18] [#12] [#14]  (6)</t>
+  </si>
+  <si>
+    <t>[#16] [#18]  (2)</t>
+  </si>
+  <si>
+    <t>[#16] [#14]  (2)</t>
+  </si>
+  <si>
+    <t>[#16] [#14] [#18] [#10]  (4)</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>143 besøk fra 43 team!</t>
+  </si>
+  <si>
+    <t>[#1] [#2] [#3] [#5] [#4] [#6] [#7] [#8] [#12] [#13] [#14] [#16] [#17] [#21] [#22]  (30)</t>
+  </si>
+  <si>
+    <t>[#10]  (1)</t>
+  </si>
+  <si>
+    <t>[#5] [#4] [#8]  (6)</t>
+  </si>
+  <si>
+    <t>[#18]  (1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1013,24 +1031,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20 % – uthevingsfarge 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % – uthevingsfarge 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % – uthevingsfarge 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % – uthevingsfarge 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % – uthevingsfarge 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % – uthevingsfarge 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % – uthevingsfarge 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % – uthevingsfarge 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % – uthevingsfarge 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % – uthevingsfarge 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % – uthevingsfarge 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % – uthevingsfarge 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % – uthevingsfarge 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % – uthevingsfarge 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % – uthevingsfarge 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % – uthevingsfarge 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % – uthevingsfarge 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % – uthevingsfarge 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20 % - uthevingsfarge 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - uthevingsfarge 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - uthevingsfarge 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - uthevingsfarge 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - uthevingsfarge 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - uthevingsfarge 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - uthevingsfarge 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - uthevingsfarge 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - uthevingsfarge 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - uthevingsfarge 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - uthevingsfarge 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - uthevingsfarge 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - uthevingsfarge 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - uthevingsfarge 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - uthevingsfarge 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - uthevingsfarge 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - uthevingsfarge 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - uthevingsfarge 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Beregning" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Dårlig" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Forklarende tekst" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -1071,7 +1089,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="statistikk" refreshOnLoad="1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="statistikk" refreshOnLoad="1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1370,7 +1388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1380,7 +1398,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
@@ -1391,14 +1409,14 @@
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="16">
         <f ca="1">NOW()</f>
-        <v>43089.84983078704</v>
+        <v>43091.81162291667</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="11" t="s">
@@ -1408,7 +1426,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="39.75" customHeight="1">
       <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
@@ -1418,11 +1436,11 @@
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="15.75">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1445,7 +1463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="75">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -1453,22 +1471,22 @@
         <v>24</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="G4" s="5">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="60">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -1477,19 +1495,19 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="G5" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="60">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
@@ -1498,107 +1516,111 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="G6" s="5">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30">
       <c r="A7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="G7" s="5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30">
       <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>102</v>
       </c>
       <c r="G8" s="5">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30">
       <c r="A9" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="D9" s="5" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G9" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30">
+      <c r="A10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" s="5">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G10" s="5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>18</v>
@@ -1608,18 +1630,18 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="G11" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>21</v>
@@ -1631,56 +1653,56 @@
         <v>5</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="5" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="G14" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>61</v>
@@ -1690,153 +1712,155 @@
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="G15" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G16" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="6" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="G17" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="G18" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="G19" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5" t="s">
-        <v>64</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="5"/>
       <c r="E20" s="6" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="5" t="s">
-        <v>117</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="5"/>
       <c r="G21" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>38</v>
@@ -1853,26 +1877,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="6" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>40</v>
@@ -1887,9 +1911,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>49</v>
@@ -1904,9 +1928,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>55</v>
@@ -1921,15 +1945,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
@@ -1938,15 +1962,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="6"/>
@@ -1955,15 +1979,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="6"/>
@@ -1972,15 +1996,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="6"/>
@@ -1989,26 +2013,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>28</v>
@@ -2017,15 +2041,15 @@
       <c r="D33" s="5"/>
       <c r="E33" s="6"/>
       <c r="F33" s="5" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G33" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>33</v>
@@ -2040,26 +2064,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>44</v>
@@ -2068,32 +2092,32 @@
       <c r="D36" s="5"/>
       <c r="E36" s="6"/>
       <c r="F36" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G36" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>36</v>
@@ -2108,77 +2132,77 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="6"/>
       <c r="F39" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G39" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="6"/>
       <c r="F40" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G40" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="6"/>
       <c r="F41" s="5" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="G41" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="6"/>
       <c r="F42" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G42" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>35</v>
@@ -2193,52 +2217,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="6"/>
       <c r="F44" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G44" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="6"/>
       <c r="F45" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G45" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="6"/>
       <c r="F46" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G46" s="5">
         <v>1</v>
@@ -2252,7 +2276,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="4294967293" r:id="rId2"/>

--- a/X-Helg 2017 Statistikk.xlsx
+++ b/X-Helg 2017 Statistikk.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Ark1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="statistikk" localSheetId="0">'Ark1'!$A$3:$G$46</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ark1'!$A$1:$G$49</definedName>
+    <definedName name="statistikk" localSheetId="0">'Ark1'!$A$3:$G$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ark1'!$A$1:$G$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="146">
   <si>
     <t>Nick</t>
   </si>
@@ -351,9 +351,6 @@
     <t>[#4] [#14] [#16] [#18]  (4)</t>
   </si>
   <si>
-    <t>[#1] [#2] [#6] [#17] [#18]  (10)</t>
-  </si>
-  <si>
     <t>[#4] [#14] [#18]  (3)</t>
   </si>
   <si>
@@ -390,21 +387,9 @@
     <t>[#2]* [#14] [#8] [#5] [#4] [#7]  (17)</t>
   </si>
   <si>
-    <t>[#6]* [#18]* [#12]*  (6)</t>
-  </si>
-  <si>
-    <t>[#1] [#2] [#6] [#8] [#10] [#12] [#13] [#14] [#16] [#18] [#21]  (22)</t>
-  </si>
-  <si>
     <t>[#3] [#5] [#4]  (3)</t>
   </si>
   <si>
-    <t>[#1] [#2] [#6] [#8] [#10] [#13] [#14] [#16] [#18] [#21]  (20)</t>
-  </si>
-  <si>
-    <t>[#3] [#5] [#4] [#12]  (4)</t>
-  </si>
-  <si>
     <t>[#16] [#22] [#21]  (9)</t>
   </si>
   <si>
@@ -423,27 +408,18 @@
     <t>[#21]  (3)</t>
   </si>
   <si>
-    <t>[#3] [#12] [#8] [#5] [#4]  (5)</t>
-  </si>
-  <si>
     <t>[#1] [#10] [#16] [#18] [#12] [#14]  (6)</t>
   </si>
   <si>
     <t>[#16] [#18]  (2)</t>
   </si>
   <si>
-    <t>[#16] [#14]  (2)</t>
-  </si>
-  <si>
     <t>[#16] [#14] [#18] [#10]  (4)</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>143 besøk fra 43 team!</t>
-  </si>
-  <si>
     <t>[#1] [#2] [#3] [#5] [#4] [#6] [#7] [#8] [#12] [#13] [#14] [#16] [#17] [#21] [#22]  (30)</t>
   </si>
   <si>
@@ -454,6 +430,54 @@
   </si>
   <si>
     <t>[#18]  (1)</t>
+  </si>
+  <si>
+    <t>[#6]* [#24]* [#18]* [#12]*  (8)</t>
+  </si>
+  <si>
+    <t>[#1] [#2] [#6] [#8] [#10] [#12] [#13] [#14] [#16] [#18] [#21] [#22] [#24]  (26)</t>
+  </si>
+  <si>
+    <t>[#1] [#2] [#6] [#8] [#10] [#13] [#14] [#16] [#18] [#21] [#24]  (22)</t>
+  </si>
+  <si>
+    <t>[#3] [#5] [#4] [#12] [#22]  (5)</t>
+  </si>
+  <si>
+    <t>[#1] [#2] [#3] [#5] [#6] [#10] [#13] [#24]  (16)</t>
+  </si>
+  <si>
+    <t>[#1] [#2] [#6] [#17] [#18] [#22]  (12)</t>
+  </si>
+  <si>
+    <t>[#3] [#12] [#8] [#5] [#4] [#21]  (6)</t>
+  </si>
+  <si>
+    <t>[#16] [#14] [#21]  (3)</t>
+  </si>
+  <si>
+    <t>[#23]  (3)</t>
+  </si>
+  <si>
+    <t>[#24]  (3)</t>
+  </si>
+  <si>
+    <t>[#15]  (1)</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Mmaikens</t>
+  </si>
+  <si>
+    <t>[#23]  (1)</t>
+  </si>
+  <si>
+    <t>Mosesnina</t>
+  </si>
+  <si>
+    <t>155 besøk fra 45 team!</t>
   </si>
 </sst>
 </file>
@@ -1392,10 +1416,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1416,7 +1440,7 @@
       <c r="B1" s="10"/>
       <c r="C1" s="16">
         <f ca="1">NOW()</f>
-        <v>43091.81162291667</v>
+        <v>43094.479069328707</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="11" t="s">
@@ -1436,7 +1460,7 @@
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="15" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="G2" s="15"/>
     </row>
@@ -1474,19 +1498,19 @@
         <v>101</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G4" s="5">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="60">
+    <row r="5" spans="1:7" ht="75">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -1495,16 +1519,16 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G5" s="5">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="60">
@@ -1516,16 +1540,16 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="G6" s="5">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30">
@@ -1537,39 +1561,39 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G7" s="5">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30">
+    <row r="8" spans="1:7" ht="45">
       <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G8" s="5">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
@@ -1577,22 +1601,22 @@
         <v>32</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>77</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G9" s="5">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
@@ -1609,13 +1633,13 @@
         <v>98</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="G10" s="5">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1633,7 +1657,7 @@
         <v>78</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G11" s="5">
         <v>15</v>
@@ -1653,7 +1677,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5">
@@ -1684,38 +1708,38 @@
         <v>66</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="6" t="s">
         <v>80</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="G14" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="6" t="s">
         <v>80</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G15" s="5">
         <v>7</v>
@@ -1723,7 +1747,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="5" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>14</v>
@@ -1734,7 +1758,7 @@
       <c r="D16" s="5"/>
       <c r="E16" s="6"/>
       <c r="F16" s="5" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="G16" s="5">
         <v>7</v>
@@ -1742,7 +1766,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="5" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>45</v>
@@ -1750,10 +1774,10 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="6" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="G17" s="5">
         <v>7</v>
@@ -1761,7 +1785,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>59</v>
@@ -1774,7 +1798,7 @@
         <v>80</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G18" s="5">
         <v>6</v>
@@ -1782,20 +1806,20 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="6" t="s">
         <v>80</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="G19" s="5">
         <v>6</v>
@@ -1806,33 +1830,35 @@
         <v>82</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="G20" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5" t="s">
-        <v>62</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="5"/>
       <c r="E21" s="6" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5">
@@ -1841,17 +1867,17 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="E22" s="6" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5">
@@ -1860,17 +1886,17 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="6" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5">
@@ -1882,33 +1908,37 @@
         <v>85</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="D24" s="5"/>
       <c r="E24" s="6" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="5" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="D25" s="5"/>
-      <c r="E25" s="6"/>
+      <c r="E25" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1916,16 +1946,18 @@
         <v>100</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="5"/>
+      <c r="F26" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="G26" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1933,27 +1965,27 @@
         <v>100</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>56</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="6"/>
+      <c r="E27" s="6" t="s">
+        <v>110</v>
+      </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="5" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
@@ -1964,13 +1996,13 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="5" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="6"/>
@@ -1981,13 +2013,13 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="5" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="6"/>
@@ -1998,13 +2030,13 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="5" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="6"/>
@@ -2015,49 +2047,49 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" s="5"/>
+        <v>106</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>107</v>
+      </c>
       <c r="D32" s="5"/>
-      <c r="E32" s="6" t="s">
-        <v>80</v>
-      </c>
+      <c r="E32" s="6"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="5"/>
+        <v>96</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="D33" s="5"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="5" t="s">
-        <v>99</v>
-      </c>
+      <c r="F33" s="5"/>
       <c r="G33" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="5" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="6" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5">
@@ -2066,66 +2098,66 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="5" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F35" s="5"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="G35" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="5" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="E36" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="5"/>
       <c r="G36" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="5" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F37" s="5"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="G37" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="5" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="6" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5">
@@ -2134,50 +2166,50 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="5" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="5" t="s">
-        <v>71</v>
-      </c>
+      <c r="E39" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="5"/>
       <c r="G39" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="6"/>
       <c r="F40" s="5" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="G40" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="5" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="6"/>
       <c r="F41" s="5" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="G41" s="5">
         <v>1</v>
@@ -2185,16 +2217,16 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="5" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="6"/>
       <c r="F42" s="5" t="s">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="G42" s="5">
         <v>1</v>
@@ -2202,16 +2234,16 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="5" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="6"/>
       <c r="F43" s="5" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="G43" s="5">
         <v>1</v>
@@ -2219,16 +2251,16 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="5" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="6"/>
       <c r="F44" s="5" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="G44" s="5">
         <v>1</v>
@@ -2236,16 +2268,16 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="5" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="6"/>
       <c r="F45" s="5" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="G45" s="5">
         <v>1</v>
@@ -2253,18 +2285,52 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="5" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="6"/>
       <c r="F46" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G46" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G47" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G48" s="5">
         <v>1</v>
       </c>
     </row>

--- a/X-Helg 2017 Statistikk.xlsx
+++ b/X-Helg 2017 Statistikk.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Ark1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="statistikk" localSheetId="0">'Ark1'!$A$3:$G$48</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ark1'!$A$1:$G$51</definedName>
+    <definedName name="statistikk" localSheetId="0">'Ark1'!$A$3:$G$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ark1'!$A$1:$G$52</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="145">
   <si>
     <t>Nick</t>
   </si>
@@ -273,9 +273,6 @@
     <t>[#11]  (1)</t>
   </si>
   <si>
-    <t>[#1] [#2] [#3] [#5] [#6] [#10] [#13]  (14)</t>
-  </si>
-  <si>
     <t>[#3] [#6] [#13]  (6)</t>
   </si>
   <si>
@@ -339,9 +336,6 @@
     <t>[#17]  (3)</t>
   </si>
   <si>
-    <t>[#1] [#2]  (2)</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
@@ -384,78 +378,36 @@
     <t>[#20]  (1)</t>
   </si>
   <si>
-    <t>[#2]* [#14] [#8] [#5] [#4] [#7]  (17)</t>
-  </si>
-  <si>
-    <t>[#3] [#5] [#4]  (3)</t>
-  </si>
-  <si>
-    <t>[#16] [#22] [#21]  (9)</t>
-  </si>
-  <si>
     <t>[#6] [#10] [#12] [#13] [#14] [#22]  (12)</t>
   </si>
   <si>
-    <t>[#1] [#2] [#3] [#16] [#18] [#21]  (6)</t>
-  </si>
-  <si>
     <t>[#22]  (3)</t>
   </si>
   <si>
-    <t>[#3]* [#2]*  (4)</t>
-  </si>
-  <si>
     <t>[#21]  (3)</t>
   </si>
   <si>
-    <t>[#1] [#10] [#16] [#18] [#12] [#14]  (6)</t>
-  </si>
-  <si>
     <t>[#16] [#18]  (2)</t>
   </si>
   <si>
-    <t>[#16] [#14] [#18] [#10]  (4)</t>
-  </si>
-  <si>
     <t>17</t>
   </si>
   <si>
-    <t>[#1] [#2] [#3] [#5] [#4] [#6] [#7] [#8] [#12] [#13] [#14] [#16] [#17] [#21] [#22]  (30)</t>
-  </si>
-  <si>
     <t>[#10]  (1)</t>
   </si>
   <si>
-    <t>[#5] [#4] [#8]  (6)</t>
-  </si>
-  <si>
     <t>[#18]  (1)</t>
   </si>
   <si>
-    <t>[#6]* [#24]* [#18]* [#12]*  (8)</t>
-  </si>
-  <si>
     <t>[#1] [#2] [#6] [#8] [#10] [#12] [#13] [#14] [#16] [#18] [#21] [#22] [#24]  (26)</t>
   </si>
   <si>
-    <t>[#1] [#2] [#6] [#8] [#10] [#13] [#14] [#16] [#18] [#21] [#24]  (22)</t>
-  </si>
-  <si>
-    <t>[#3] [#5] [#4] [#12] [#22]  (5)</t>
-  </si>
-  <si>
     <t>[#1] [#2] [#3] [#5] [#6] [#10] [#13] [#24]  (16)</t>
   </si>
   <si>
     <t>[#1] [#2] [#6] [#17] [#18] [#22]  (12)</t>
   </si>
   <si>
-    <t>[#3] [#12] [#8] [#5] [#4] [#21]  (6)</t>
-  </si>
-  <si>
-    <t>[#16] [#14] [#21]  (3)</t>
-  </si>
-  <si>
     <t>[#23]  (3)</t>
   </si>
   <si>
@@ -465,9 +417,6 @@
     <t>[#15]  (1)</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>Mmaikens</t>
   </si>
   <si>
@@ -477,7 +426,55 @@
     <t>Mosesnina</t>
   </si>
   <si>
-    <t>155 besøk fra 45 team!</t>
+    <t>[#2]* [#14] [#4] [#5] [#7] [#8]  (17)</t>
+  </si>
+  <si>
+    <t>[#1] [#2] [#3] [#4] [#5] [#6] [#7] [#8] [#12] [#13] [#14] [#16] [#17] [#21] [#22] [#24]  (32)</t>
+  </si>
+  <si>
+    <t>[#12]* [#18]* [#24]* [#6]*  (8)</t>
+  </si>
+  <si>
+    <t>[#3] [#4] [#5] [#17]  (4)</t>
+  </si>
+  <si>
+    <t>[#16] [#21] [#22]  (9)</t>
+  </si>
+  <si>
+    <t>[#1] [#2] [#3] [#16] [#18] [#21] [#24]  (7)</t>
+  </si>
+  <si>
+    <t>[#2]* [#3]*  (4)</t>
+  </si>
+  <si>
+    <t>[#3] [#12] [#4] [#5] [#8] [#21]  (6)</t>
+  </si>
+  <si>
+    <t>[#1] [#10] [#16] [#12] [#14] [#18]  (6)</t>
+  </si>
+  <si>
+    <t>[#14] [#16] [#21]  (3)</t>
+  </si>
+  <si>
+    <t>[#14] [#16] [#18] [#10]  (4)</t>
+  </si>
+  <si>
+    <t>[#4] [#5] [#8]  (6)</t>
+  </si>
+  <si>
+    <t>[#2] [#6]  (2)</t>
+  </si>
+  <si>
+    <t>[#1] [#2] [#14]  (3)</t>
+  </si>
+  <si>
+    <t>[#9] [#23]  (2)</t>
+  </si>
+  <si>
+    <t>StormB07</t>
+  </si>
+  <si>
+    <t>164 besøk fra 46 team!</t>
   </si>
 </sst>
 </file>
@@ -1416,10 +1413,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1429,7 +1426,7 @@
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="30.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1440,7 +1437,7 @@
       <c r="B1" s="10"/>
       <c r="C1" s="16">
         <f ca="1">NOW()</f>
-        <v>43094.479069328707</v>
+        <v>43096.614918402774</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="11" t="s">
@@ -1460,7 +1457,7 @@
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G2" s="15"/>
     </row>
@@ -1495,19 +1492,19 @@
         <v>24</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="G4" s="5">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="75">
@@ -1522,18 +1519,18 @@
         <v>130</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>115</v>
-      </c>
       <c r="G5" s="5">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="60">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="75">
       <c r="A6" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>31</v>
@@ -1543,100 +1540,100 @@
         <v>130</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G6" s="5">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30">
       <c r="A7" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="G7" s="5">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="45">
       <c r="A8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="5">
         <v>27</v>
       </c>
-      <c r="B8" s="5" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="45">
+      <c r="A9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C9" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="F9" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="5">
         <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="G9" s="5">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
       <c r="A10" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E10" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>136</v>
       </c>
       <c r="G10" s="5">
         <v>24</v>
@@ -1644,7 +1641,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>18</v>
@@ -1654,10 +1651,10 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="G11" s="5">
         <v>15</v>
@@ -1665,7 +1662,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>21</v>
@@ -1677,7 +1674,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5">
@@ -1686,7 +1683,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>34</v>
@@ -1696,7 +1693,7 @@
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5">
@@ -1705,7 +1702,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="5" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>61</v>
@@ -1715,7 +1712,7 @@
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>137</v>
@@ -1726,7 +1723,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>25</v>
@@ -1736,10 +1733,10 @@
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G15" s="5">
         <v>7</v>
@@ -1747,7 +1744,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="5" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>14</v>
@@ -1758,7 +1755,7 @@
       <c r="D16" s="5"/>
       <c r="E16" s="6"/>
       <c r="F16" s="5" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="G16" s="5">
         <v>7</v>
@@ -1766,7 +1763,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="5" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>45</v>
@@ -1774,10 +1771,10 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="6" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="G17" s="5">
         <v>7</v>
@@ -1785,41 +1782,41 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="5" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="G18" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="G19" s="5">
         <v>6</v>
@@ -1827,20 +1824,20 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>5</v>
+        <v>122</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="G20" s="5">
         <v>6</v>
@@ -1848,13 +1845,13 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="6" t="s">
@@ -1867,17 +1864,17 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5">
@@ -1886,13 +1883,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="6" t="s">
@@ -1905,7 +1902,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>38</v>
@@ -1924,17 +1921,17 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5">
@@ -1943,7 +1940,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="5" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>55</v>
@@ -1954,7 +1951,7 @@
       <c r="D26" s="5"/>
       <c r="E26" s="6"/>
       <c r="F26" s="5" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="G26" s="5">
         <v>4</v>
@@ -1962,15 +1959,15 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="5" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5">
@@ -1979,30 +1976,30 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="5" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="5"/>
+      <c r="F28" s="5" t="s">
+        <v>141</v>
+      </c>
       <c r="G28" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="5" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="6"/>
@@ -2013,13 +2010,13 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="5" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="6"/>
@@ -2030,13 +2027,13 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="5" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="6"/>
@@ -2047,13 +2044,13 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="5" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="6"/>
@@ -2064,13 +2061,13 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="5" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="6"/>
@@ -2081,41 +2078,41 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="5" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="5"/>
+        <v>95</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="D34" s="5"/>
-      <c r="E34" s="6" t="s">
-        <v>80</v>
-      </c>
+      <c r="E34" s="6"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="5" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="5" t="s">
-        <v>99</v>
-      </c>
+      <c r="E35" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="5"/>
       <c r="G35" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="5" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>33</v>
@@ -2132,7 +2129,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="5" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>44</v>
@@ -2149,32 +2146,32 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="5" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
-      <c r="E38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F38" s="5"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="G38" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="5" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="6" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5">
@@ -2183,50 +2180,50 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="5" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="5" t="s">
-        <v>71</v>
-      </c>
+      <c r="E40" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40" s="5"/>
       <c r="G40" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="5" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="6"/>
       <c r="F41" s="5" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="G41" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="5" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="6"/>
       <c r="F42" s="5" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="G42" s="5">
         <v>1</v>
@@ -2234,16 +2231,16 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="5" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="6"/>
       <c r="F43" s="5" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="G43" s="5">
         <v>1</v>
@@ -2251,16 +2248,16 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="5" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="6"/>
       <c r="F44" s="5" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="G44" s="5">
         <v>1</v>
@@ -2268,16 +2265,16 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="5" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="6"/>
       <c r="F45" s="5" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="G45" s="5">
         <v>1</v>
@@ -2285,16 +2282,16 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="5" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="6"/>
       <c r="F46" s="5" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="G46" s="5">
         <v>1</v>
@@ -2302,16 +2299,16 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="5" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="6"/>
       <c r="F47" s="5" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="G47" s="5">
         <v>1</v>
@@ -2319,18 +2316,35 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="5" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="6"/>
       <c r="F48" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G48" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G49" s="5">
         <v>1</v>
       </c>
     </row>

--- a/X-Helg 2017 Statistikk.xlsx
+++ b/X-Helg 2017 Statistikk.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Ark1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="statistikk" localSheetId="0">'Ark1'!$A$3:$G$49</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ark1'!$A$1:$G$52</definedName>
+    <definedName name="statistikk" localSheetId="0">'Ark1'!$A$3:$G$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ark1'!$A$1:$G$53</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="145">
   <si>
     <t>Nick</t>
   </si>
@@ -390,9 +390,6 @@
     <t>[#16] [#18]  (2)</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>[#10]  (1)</t>
   </si>
   <si>
@@ -453,9 +450,6 @@
     <t>[#1] [#10] [#16] [#12] [#14] [#18]  (6)</t>
   </si>
   <si>
-    <t>[#14] [#16] [#21]  (3)</t>
-  </si>
-  <si>
     <t>[#14] [#16] [#18] [#10]  (4)</t>
   </si>
   <si>
@@ -474,7 +468,13 @@
     <t>StormB07</t>
   </si>
   <si>
-    <t>164 besøk fra 46 team!</t>
+    <t>[#14] [#16] [#21] [#8]  (4)</t>
+  </si>
+  <si>
+    <t>Team Tjordal</t>
+  </si>
+  <si>
+    <t>167 besøk fra 47 team!</t>
   </si>
 </sst>
 </file>
@@ -1413,10 +1413,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1437,7 +1437,7 @@
       <c r="B1" s="10"/>
       <c r="C1" s="16">
         <f ca="1">NOW()</f>
-        <v>43096.614918402774</v>
+        <v>43098.848946064812</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="11" t="s">
@@ -1495,13 +1495,13 @@
         <v>99</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>129</v>
-      </c>
       <c r="F4" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G4" s="5">
         <v>53</v>
@@ -1516,13 +1516,13 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="G5" s="5">
         <v>38</v>
@@ -1537,13 +1537,13 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="G6" s="5">
         <v>38</v>
@@ -1558,13 +1558,13 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>112</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G7" s="5">
         <v>28</v>
@@ -1581,10 +1581,10 @@
         <v>113</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>100</v>
@@ -1604,10 +1604,10 @@
         <v>114</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>101</v>
@@ -1630,10 +1630,10 @@
         <v>97</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G10" s="5">
         <v>24</v>
@@ -1654,7 +1654,7 @@
         <v>77</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G11" s="5">
         <v>15</v>
@@ -1676,9 +1676,11 @@
       <c r="E12" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="G12" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1686,44 +1688,44 @@
         <v>51</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F13" s="5"/>
+        <v>79</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="G13" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>137</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="F14" s="5"/>
       <c r="G14" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>25</v>
@@ -1744,7 +1746,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="5" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>14</v>
@@ -1755,7 +1757,7 @@
       <c r="D16" s="5"/>
       <c r="E16" s="6"/>
       <c r="F16" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G16" s="5">
         <v>7</v>
@@ -1763,7 +1765,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="5" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>45</v>
@@ -1771,10 +1773,10 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G17" s="5">
         <v>7</v>
@@ -1782,7 +1784,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="5" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>3</v>
@@ -1795,7 +1797,7 @@
         <v>79</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G18" s="5">
         <v>7</v>
@@ -1803,7 +1805,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="5" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>59</v>
@@ -1824,13 +1826,13 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="5" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="6" t="s">
@@ -1845,7 +1847,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>67</v>
@@ -1864,7 +1866,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>87</v>
@@ -1883,7 +1885,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>57</v>
@@ -1902,7 +1904,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>38</v>
@@ -1921,13 +1923,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>83</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="6" t="s">
@@ -1940,7 +1942,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>55</v>
@@ -1951,7 +1953,7 @@
       <c r="D26" s="5"/>
       <c r="E26" s="6"/>
       <c r="F26" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G26" s="5">
         <v>4</v>
@@ -1959,7 +1961,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>106</v>
@@ -1976,7 +1978,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="5" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>28</v>
@@ -1985,7 +1987,7 @@
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
       <c r="F28" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G28" s="5">
         <v>3</v>
@@ -1993,7 +1995,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="5" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>40</v>
@@ -2010,7 +2012,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="5" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>49</v>
@@ -2027,7 +2029,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="5" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>96</v>
@@ -2044,7 +2046,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="5" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>64</v>
@@ -2061,7 +2063,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="5" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>104</v>
@@ -2078,7 +2080,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="5" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>95</v>
@@ -2095,7 +2097,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="5" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>82</v>
@@ -2112,7 +2114,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="5" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>33</v>
@@ -2129,7 +2131,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="5" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>44</v>
@@ -2146,7 +2148,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="5" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>74</v>
@@ -2155,7 +2157,7 @@
       <c r="D38" s="5"/>
       <c r="E38" s="6"/>
       <c r="F38" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G38" s="5">
         <v>2</v>
@@ -2163,7 +2165,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="5" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>90</v>
@@ -2180,7 +2182,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="5" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>36</v>
@@ -2197,7 +2199,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="5" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>70</v>
@@ -2214,7 +2216,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>85</v>
@@ -2231,16 +2233,16 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="6"/>
       <c r="F43" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G43" s="5">
         <v>1</v>
@@ -2248,16 +2250,16 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="6"/>
       <c r="F44" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G44" s="5">
         <v>1</v>
@@ -2265,10 +2267,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -2282,7 +2284,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>110</v>
@@ -2299,16 +2301,16 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="6"/>
       <c r="F47" s="5" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="G47" s="5">
         <v>1</v>
@@ -2316,16 +2318,16 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="6"/>
       <c r="F48" s="5" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="G48" s="5">
         <v>1</v>
@@ -2333,18 +2335,35 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="6"/>
       <c r="F49" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G49" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G50" s="5">
         <v>1</v>
       </c>
     </row>
@@ -2359,6 +2378,6 @@
     <hyperlink ref="F1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="4294967293" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="68" orientation="portrait" horizontalDpi="4294967293" r:id="rId2"/>
 </worksheet>
 </file>
--- a/X-Helg 2017 Statistikk.xlsx
+++ b/X-Helg 2017 Statistikk.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Ark1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="statistikk" localSheetId="0">'Ark1'!$A$3:$G$50</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ark1'!$A$1:$G$53</definedName>
+    <definedName name="statistikk" localSheetId="0">'Ark1'!$A$3:$G$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ark1'!$A$1:$G$57</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="153">
   <si>
     <t>Nick</t>
   </si>
@@ -438,15 +438,9 @@
     <t>[#16] [#21] [#22]  (9)</t>
   </si>
   <si>
-    <t>[#1] [#2] [#3] [#16] [#18] [#21] [#24]  (7)</t>
-  </si>
-  <si>
     <t>[#2]* [#3]*  (4)</t>
   </si>
   <si>
-    <t>[#3] [#12] [#4] [#5] [#8] [#21]  (6)</t>
-  </si>
-  <si>
     <t>[#1] [#10] [#16] [#12] [#14] [#18]  (6)</t>
   </si>
   <si>
@@ -468,13 +462,43 @@
     <t>StormB07</t>
   </si>
   <si>
-    <t>[#14] [#16] [#21] [#8]  (4)</t>
-  </si>
-  <si>
     <t>Team Tjordal</t>
   </si>
   <si>
-    <t>167 besøk fra 47 team!</t>
+    <t>[#1] [#2] [#3] [#16] [#18] [#21] [#24] [#4] [#5] [#8]  (10)</t>
+  </si>
+  <si>
+    <t>[#3] [#12] [#4] [#5] [#8] [#21] [#24] [#19] [#7]  (9)</t>
+  </si>
+  <si>
+    <t>[#18] [#6] [#4] [#5] [#8]  (5)</t>
+  </si>
+  <si>
+    <t>[#9] [#18]  (2)</t>
+  </si>
+  <si>
+    <t>[#14] [#16] [#21] [#8] [#24]  (5)</t>
+  </si>
+  <si>
+    <t>Cache and Company</t>
+  </si>
+  <si>
+    <t>[#5] [#4]  (2)</t>
+  </si>
+  <si>
+    <t>[#14] [#6]  (2)</t>
+  </si>
+  <si>
+    <t>Lasolse</t>
+  </si>
+  <si>
+    <t>Thorin Eikenskjold</t>
+  </si>
+  <si>
+    <t>elinew88</t>
+  </si>
+  <si>
+    <t>194 besøk fra 51 team!</t>
   </si>
 </sst>
 </file>
@@ -1413,20 +1437,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="30.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1437,7 +1461,7 @@
       <c r="B1" s="10"/>
       <c r="C1" s="16">
         <f ca="1">NOW()</f>
-        <v>43098.848946064812</v>
+        <v>43102.523853935185</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="11" t="s">
@@ -1457,7 +1481,7 @@
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="15" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="G2" s="15"/>
     </row>
@@ -1564,30 +1588,30 @@
         <v>112</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G7" s="5">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30">
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="G8" s="5">
         <v>27</v>
@@ -1595,53 +1619,53 @@
     </row>
     <row r="9" spans="1:7" ht="45">
       <c r="A9" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>119</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="45">
+      <c r="A10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G10" s="5">
         <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G10" s="5">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>18</v>
@@ -1654,7 +1678,7 @@
         <v>77</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G11" s="5">
         <v>15</v>
@@ -1662,46 +1686,46 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D12" s="5"/>
       <c r="E12" s="6" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="G12" s="5">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="5"/>
+        <v>46</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E13" s="6" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G13" s="5">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1709,18 +1733,20 @@
         <v>51</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F14" s="5"/>
+        <v>79</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="G14" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1757,7 +1783,7 @@
       <c r="D16" s="5"/>
       <c r="E16" s="6"/>
       <c r="F16" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G16" s="5">
         <v>7</v>
@@ -1773,7 +1799,7 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>117</v>
@@ -1797,7 +1823,7 @@
         <v>79</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G18" s="5">
         <v>7</v>
@@ -1987,7 +2013,7 @@
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
       <c r="F28" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G28" s="5">
         <v>3</v>
@@ -2100,14 +2126,14 @@
         <v>98</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F35" s="5"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="G35" s="5">
         <v>2</v>
       </c>
@@ -2117,12 +2143,12 @@
         <v>98</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="6" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5">
@@ -2134,14 +2160,14 @@
         <v>98</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="E37" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="5"/>
       <c r="G37" s="5">
         <v>2</v>
       </c>
@@ -2151,13 +2177,13 @@
         <v>98</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="6"/>
       <c r="F38" s="5" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="G38" s="5">
         <v>2</v>
@@ -2168,14 +2194,14 @@
         <v>98</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F39" s="5"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="G39" s="5">
         <v>2</v>
       </c>
@@ -2185,14 +2211,14 @@
         <v>98</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F40" s="5"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="G40" s="5">
         <v>2</v>
       </c>
@@ -2202,50 +2228,50 @@
         <v>98</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="5" t="s">
-        <v>71</v>
-      </c>
+      <c r="E41" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" s="5"/>
       <c r="G41" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="5" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="5" t="s">
-        <v>86</v>
-      </c>
+      <c r="E42" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="5"/>
       <c r="G42" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="5" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="6"/>
       <c r="F43" s="5" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="G43" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2253,13 +2279,13 @@
         <v>109</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="6"/>
       <c r="F44" s="5" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="G44" s="5">
         <v>1</v>
@@ -2270,13 +2296,13 @@
         <v>109</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="6"/>
       <c r="F45" s="5" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="G45" s="5">
         <v>1</v>
@@ -2287,13 +2313,13 @@
         <v>109</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="6"/>
       <c r="F46" s="5" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="G46" s="5">
         <v>1</v>
@@ -2304,13 +2330,13 @@
         <v>109</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="6"/>
       <c r="F47" s="5" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="G47" s="5">
         <v>1</v>
@@ -2321,13 +2347,13 @@
         <v>109</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="6"/>
       <c r="F48" s="5" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="G48" s="5">
         <v>1</v>
@@ -2338,13 +2364,13 @@
         <v>109</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="6"/>
       <c r="F49" s="5" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="G49" s="5">
         <v>1</v>
@@ -2355,15 +2381,83 @@
         <v>109</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="6"/>
       <c r="F50" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G50" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G51" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G53" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G54" s="5">
         <v>1</v>
       </c>
     </row>
